--- a/Tugas proyek akhir meteo/hasil.xlsx
+++ b/Tugas proyek akhir meteo/hasil.xlsx
@@ -3428,12 +3428,18 @@
       <c r="H3" t="n">
         <v>24.5</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>27.4</v>
+      </c>
       <c r="J3" t="n">
         <v>24.7</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>27</v>
+      </c>
+      <c r="L3" t="n">
+        <v>26.8</v>
+      </c>
       <c r="M3" t="n">
         <v>26.5</v>
       </c>
@@ -3479,24 +3485,36 @@
       <c r="AA3" t="n">
         <v>27</v>
       </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>27.9</v>
+      </c>
       <c r="AF3" t="n">
         <v>26.2</v>
       </c>
       <c r="AG3" t="n">
         <v>26.1</v>
       </c>
-      <c r="AH3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>26.3</v>
+      </c>
       <c r="AI3" t="n">
         <v>26.7</v>
       </c>
       <c r="AJ3" t="n">
         <v>27.2</v>
       </c>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AK3" t="n">
+        <v>27</v>
+      </c>
       <c r="AL3" t="n">
         <v>25.9</v>
       </c>
@@ -3512,14 +3530,18 @@
       <c r="AP3" t="n">
         <v>27.2</v>
       </c>
-      <c r="AQ3" t="inlineStr"/>
+      <c r="AQ3" t="n">
+        <v>28.6</v>
+      </c>
       <c r="AR3" t="n">
         <v>28.4</v>
       </c>
       <c r="AS3" t="n">
         <v>27.9</v>
       </c>
-      <c r="AT3" t="inlineStr"/>
+      <c r="AT3" t="n">
+        <v>28.4</v>
+      </c>
       <c r="AU3" t="n">
         <v>27.9</v>
       </c>
@@ -3532,7 +3554,9 @@
       <c r="AX3" t="n">
         <v>25.5</v>
       </c>
-      <c r="AY3" t="inlineStr"/>
+      <c r="AY3" t="n">
+        <v>26.9</v>
+      </c>
       <c r="AZ3" t="n">
         <v>26.9</v>
       </c>
@@ -3560,7 +3584,9 @@
       <c r="BH3" t="n">
         <v>27.8</v>
       </c>
-      <c r="BI3" t="inlineStr"/>
+      <c r="BI3" t="n">
+        <v>28.2</v>
+      </c>
       <c r="BJ3" t="n">
         <v>25.9</v>
       </c>
@@ -3579,18 +3605,24 @@
       <c r="BO3" t="n">
         <v>27</v>
       </c>
-      <c r="BP3" t="inlineStr"/>
+      <c r="BP3" t="n">
+        <v>26.6</v>
+      </c>
       <c r="BQ3" t="n">
         <v>24.5</v>
       </c>
       <c r="BR3" t="n">
         <v>26.3</v>
       </c>
-      <c r="BS3" t="inlineStr"/>
+      <c r="BS3" t="n">
+        <v>28.1</v>
+      </c>
       <c r="BT3" t="n">
         <v>27.2</v>
       </c>
-      <c r="BU3" t="inlineStr"/>
+      <c r="BU3" t="n">
+        <v>28</v>
+      </c>
       <c r="BV3" t="n">
         <v>27.6</v>
       </c>
@@ -3618,16 +3650,24 @@
       <c r="CD3" t="n">
         <v>27.8</v>
       </c>
-      <c r="CE3" t="inlineStr"/>
-      <c r="CF3" t="inlineStr"/>
+      <c r="CE3" t="n">
+        <v>27</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>25.1</v>
+      </c>
       <c r="CG3" t="n">
         <v>26.4</v>
       </c>
-      <c r="CH3" t="inlineStr"/>
+      <c r="CH3" t="n">
+        <v>27.7</v>
+      </c>
       <c r="CI3" t="n">
         <v>27.2</v>
       </c>
-      <c r="CJ3" t="inlineStr"/>
+      <c r="CJ3" t="n">
+        <v>27.7</v>
+      </c>
       <c r="CK3" t="n">
         <v>27.3</v>
       </c>
@@ -3649,7 +3689,9 @@
       <c r="CQ3" t="n">
         <v>24.2</v>
       </c>
-      <c r="CR3" t="inlineStr"/>
+      <c r="CR3" t="n">
+        <v>27.6</v>
+      </c>
       <c r="CS3" t="n">
         <v>25.7</v>
       </c>
@@ -3704,7 +3746,9 @@
       <c r="DJ3" t="n">
         <v>28.4</v>
       </c>
-      <c r="DK3" t="inlineStr"/>
+      <c r="DK3" t="n">
+        <v>27.5</v>
+      </c>
       <c r="DL3" t="n">
         <v>27.5</v>
       </c>
@@ -3918,7 +3962,9 @@
       <c r="GD3" t="n">
         <v>27.8</v>
       </c>
-      <c r="GE3" t="inlineStr"/>
+      <c r="GE3" t="n">
+        <v>28.2</v>
+      </c>
       <c r="GF3" t="n">
         <v>26.4</v>
       </c>
@@ -3934,7 +3980,9 @@
       <c r="GJ3" t="n">
         <v>27.2</v>
       </c>
-      <c r="GK3" t="inlineStr"/>
+      <c r="GK3" t="n">
+        <v>26.8</v>
+      </c>
       <c r="GL3" t="n">
         <v>25.8</v>
       </c>
@@ -4106,7 +4154,9 @@
       <c r="IP3" t="n">
         <v>27.1</v>
       </c>
-      <c r="IQ3" t="inlineStr"/>
+      <c r="IQ3" t="n">
+        <v>28</v>
+      </c>
       <c r="IR3" t="n">
         <v>25.9</v>
       </c>
@@ -4146,7 +4196,9 @@
       <c r="JD3" t="n">
         <v>28.2</v>
       </c>
-      <c r="JE3" t="inlineStr"/>
+      <c r="JE3" t="n">
+        <v>25.8</v>
+      </c>
       <c r="JF3" t="n">
         <v>27.1</v>
       </c>
@@ -4201,7 +4253,9 @@
       <c r="JW3" t="n">
         <v>27.8</v>
       </c>
-      <c r="JX3" t="inlineStr"/>
+      <c r="JX3" t="n">
+        <v>29.6</v>
+      </c>
       <c r="JY3" t="n">
         <v>28.6</v>
       </c>
@@ -4308,7 +4362,9 @@
       <c r="LH3" t="n">
         <v>28.6</v>
       </c>
-      <c r="LI3" t="inlineStr"/>
+      <c r="LI3" t="n">
+        <v>27.2</v>
+      </c>
       <c r="LJ3" t="n">
         <v>28.1</v>
       </c>
@@ -4324,7 +4380,9 @@
       <c r="LN3" t="n">
         <v>26.9</v>
       </c>
-      <c r="LO3" t="inlineStr"/>
+      <c r="LO3" t="n">
+        <v>29.5</v>
+      </c>
       <c r="LP3" t="n">
         <v>28.6</v>
       </c>
@@ -4379,7 +4437,9 @@
       <c r="MG3" t="n">
         <v>28.9</v>
       </c>
-      <c r="MH3" t="inlineStr"/>
+      <c r="MH3" t="n">
+        <v>25.7</v>
+      </c>
       <c r="MI3" t="n">
         <v>25.7</v>
       </c>
@@ -4404,8 +4464,12 @@
       <c r="MP3" t="n">
         <v>30</v>
       </c>
-      <c r="MQ3" t="inlineStr"/>
-      <c r="MR3" t="inlineStr"/>
+      <c r="MQ3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="MR3" t="n">
+        <v>29.3</v>
+      </c>
       <c r="MS3" t="n">
         <v>28.2</v>
       </c>
@@ -4496,7 +4560,9 @@
       <c r="N4" t="n">
         <v>27</v>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>26.6</v>
+      </c>
       <c r="P4" t="n">
         <v>25.5</v>
       </c>
@@ -4752,7 +4818,9 @@
       <c r="CV4" t="n">
         <v>28.3</v>
       </c>
-      <c r="CW4" t="inlineStr"/>
+      <c r="CW4" t="n">
+        <v>24.6</v>
+      </c>
       <c r="CX4" t="n">
         <v>26.2</v>
       </c>
@@ -7891,7 +7959,9 @@
       <c r="AG7" t="n">
         <v>26.5</v>
       </c>
-      <c r="AH7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>26.2</v>
+      </c>
       <c r="AI7" t="n">
         <v>25.1</v>
       </c>
@@ -7913,7 +7983,9 @@
       <c r="AO7" t="n">
         <v>27.6</v>
       </c>
-      <c r="AP7" t="inlineStr"/>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
       <c r="AQ7" t="n">
         <v>28</v>
       </c>
@@ -7932,7 +8004,9 @@
       <c r="AV7" t="n">
         <v>24.4</v>
       </c>
-      <c r="AW7" t="inlineStr"/>
+      <c r="AW7" t="n">
+        <v>25.5</v>
+      </c>
       <c r="AX7" t="n">
         <v>27.3</v>
       </c>
@@ -7954,7 +8028,9 @@
       <c r="BD7" t="n">
         <v>26.3</v>
       </c>
-      <c r="BE7" t="inlineStr"/>
+      <c r="BE7" t="n">
+        <v>26.4</v>
+      </c>
       <c r="BF7" t="n">
         <v>26.8</v>
       </c>
@@ -8003,7 +8079,9 @@
       <c r="BU7" t="n">
         <v>27.2</v>
       </c>
-      <c r="BV7" t="inlineStr"/>
+      <c r="BV7" t="n">
+        <v>27</v>
+      </c>
       <c r="BW7" t="n">
         <v>24.5</v>
       </c>
@@ -8106,14 +8184,18 @@
       <c r="DD7" t="n">
         <v>29.4</v>
       </c>
-      <c r="DE7" t="inlineStr"/>
+      <c r="DE7" t="n">
+        <v>28</v>
+      </c>
       <c r="DF7" t="n">
         <v>27.6</v>
       </c>
       <c r="DG7" t="n">
         <v>26.3</v>
       </c>
-      <c r="DH7" t="inlineStr"/>
+      <c r="DH7" t="n">
+        <v>28.4</v>
+      </c>
       <c r="DI7" t="n">
         <v>28.7</v>
       </c>
@@ -8132,7 +8214,9 @@
       <c r="DN7" t="n">
         <v>29.1</v>
       </c>
-      <c r="DO7" t="inlineStr"/>
+      <c r="DO7" t="n">
+        <v>29.8</v>
+      </c>
       <c r="DP7" t="n">
         <v>26.9</v>
       </c>
@@ -8169,7 +8253,9 @@
       <c r="EA7" t="n">
         <v>28.5</v>
       </c>
-      <c r="EB7" t="inlineStr"/>
+      <c r="EB7" t="n">
+        <v>28.1</v>
+      </c>
       <c r="EC7" t="n">
         <v>27.8</v>
       </c>
@@ -8275,7 +8361,9 @@
       <c r="FK7" t="n">
         <v>28.9</v>
       </c>
-      <c r="FL7" t="inlineStr"/>
+      <c r="FL7" t="n">
+        <v>28.1</v>
+      </c>
       <c r="FM7" t="n">
         <v>27.8</v>
       </c>
@@ -8345,7 +8433,9 @@
       <c r="GI7" t="n">
         <v>27.6</v>
       </c>
-      <c r="GJ7" t="inlineStr"/>
+      <c r="GJ7" t="n">
+        <v>27.7</v>
+      </c>
       <c r="GK7" t="n">
         <v>26.2</v>
       </c>
@@ -8373,7 +8463,9 @@
       <c r="GS7" t="n">
         <v>26.6</v>
       </c>
-      <c r="GT7" t="inlineStr"/>
+      <c r="GT7" t="n">
+        <v>26.3</v>
+      </c>
       <c r="GU7" t="n">
         <v>27.9</v>
       </c>
@@ -8416,8 +8508,12 @@
       <c r="HH7" t="n">
         <v>26.6</v>
       </c>
-      <c r="HI7" t="inlineStr"/>
-      <c r="HJ7" t="inlineStr"/>
+      <c r="HI7" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="HJ7" t="n">
+        <v>28.3</v>
+      </c>
       <c r="HK7" t="n">
         <v>27.8</v>
       </c>
@@ -8442,7 +8538,9 @@
       <c r="HR7" t="n">
         <v>27.6</v>
       </c>
-      <c r="HS7" t="inlineStr"/>
+      <c r="HS7" t="n">
+        <v>28.2</v>
+      </c>
       <c r="HT7" t="n">
         <v>27.2</v>
       </c>
@@ -8515,7 +8613,9 @@
       <c r="IQ7" t="n">
         <v>27.3</v>
       </c>
-      <c r="IR7" t="inlineStr"/>
+      <c r="IR7" t="n">
+        <v>27.6</v>
+      </c>
       <c r="IS7" t="n">
         <v>28.6</v>
       </c>
@@ -8531,7 +8631,9 @@
       <c r="IW7" t="n">
         <v>28.8</v>
       </c>
-      <c r="IX7" t="inlineStr"/>
+      <c r="IX7" t="n">
+        <v>28.1</v>
+      </c>
       <c r="IY7" t="n">
         <v>27.6</v>
       </c>
@@ -8668,7 +8770,9 @@
       <c r="KR7" t="n">
         <v>29.2</v>
       </c>
-      <c r="KS7" t="inlineStr"/>
+      <c r="KS7" t="n">
+        <v>29.8</v>
+      </c>
       <c r="KT7" t="n">
         <v>27.7</v>
       </c>
@@ -9218,7 +9322,9 @@
       <c r="DL8" t="n">
         <v>29.2</v>
       </c>
-      <c r="DM8" t="inlineStr"/>
+      <c r="DM8" t="n">
+        <v>28.7</v>
+      </c>
       <c r="DN8" t="n">
         <v>28.8</v>
       </c>
@@ -9594,7 +9700,9 @@
       <c r="IH8" t="n">
         <v>27.2</v>
       </c>
-      <c r="II8" t="inlineStr"/>
+      <c r="II8" t="n">
+        <v>27.7</v>
+      </c>
       <c r="IJ8" t="n">
         <v>28.3</v>
       </c>
@@ -9619,7 +9727,9 @@
       <c r="IQ8" t="n">
         <v>28.5</v>
       </c>
-      <c r="IR8" t="inlineStr"/>
+      <c r="IR8" t="n">
+        <v>27.6</v>
+      </c>
       <c r="IS8" t="n">
         <v>28.6</v>
       </c>
@@ -9728,7 +9838,9 @@
       <c r="KB8" t="n">
         <v>27.4</v>
       </c>
-      <c r="KC8" t="inlineStr"/>
+      <c r="KC8" t="n">
+        <v>28.3</v>
+      </c>
       <c r="KD8" t="n">
         <v>28.5</v>
       </c>
@@ -9744,7 +9856,9 @@
       <c r="KH8" t="n">
         <v>26.1</v>
       </c>
-      <c r="KI8" t="inlineStr"/>
+      <c r="KI8" t="n">
+        <v>29.8</v>
+      </c>
       <c r="KJ8" t="n">
         <v>27</v>
       </c>
@@ -10220,7 +10334,9 @@
       <c r="CD9" t="n">
         <v>27.4</v>
       </c>
-      <c r="CE9" t="inlineStr"/>
+      <c r="CE9" t="n">
+        <v>28.1</v>
+      </c>
       <c r="CF9" t="n">
         <v>26.8</v>
       </c>
@@ -10311,7 +10427,9 @@
       <c r="DI9" t="n">
         <v>28.5</v>
       </c>
-      <c r="DJ9" t="inlineStr"/>
+      <c r="DJ9" t="n">
+        <v>28.5</v>
+      </c>
       <c r="DK9" t="n">
         <v>25.9</v>
       </c>
@@ -10495,7 +10613,9 @@
       <c r="FS9" t="n">
         <v>27.1</v>
       </c>
-      <c r="FT9" t="inlineStr"/>
+      <c r="FT9" t="n">
+        <v>26.4</v>
+      </c>
       <c r="FU9" t="n">
         <v>26.7</v>
       </c>
@@ -10532,7 +10652,9 @@
       <c r="GF9" t="n">
         <v>27.9</v>
       </c>
-      <c r="GG9" t="inlineStr"/>
+      <c r="GG9" t="n">
+        <v>25.3</v>
+      </c>
       <c r="GH9" t="n">
         <v>27.4</v>
       </c>
@@ -10575,7 +10697,9 @@
       <c r="GU9" t="n">
         <v>27.7</v>
       </c>
-      <c r="GV9" t="inlineStr"/>
+      <c r="GV9" t="n">
+        <v>27.6</v>
+      </c>
       <c r="GW9" t="n">
         <v>27.9</v>
       </c>
@@ -10666,7 +10790,9 @@
       <c r="HZ9" t="n">
         <v>28.3</v>
       </c>
-      <c r="IA9" t="inlineStr"/>
+      <c r="IA9" t="n">
+        <v>27</v>
+      </c>
       <c r="IB9" t="n">
         <v>28.6</v>
       </c>
@@ -10679,7 +10805,9 @@
       <c r="IE9" t="n">
         <v>28</v>
       </c>
-      <c r="IF9" t="inlineStr"/>
+      <c r="IF9" t="n">
+        <v>27.5</v>
+      </c>
       <c r="IG9" t="n">
         <v>28</v>
       </c>
@@ -10713,7 +10841,9 @@
       <c r="IQ9" t="n">
         <v>27.3</v>
       </c>
-      <c r="IR9" t="inlineStr"/>
+      <c r="IR9" t="n">
+        <v>27.6</v>
+      </c>
       <c r="IS9" t="n">
         <v>27.9</v>
       </c>
@@ -10822,7 +10952,9 @@
       <c r="KB9" t="n">
         <v>29.6</v>
       </c>
-      <c r="KC9" t="inlineStr"/>
+      <c r="KC9" t="n">
+        <v>28.3</v>
+      </c>
       <c r="KD9" t="n">
         <v>30.1</v>
       </c>
@@ -10890,7 +11022,9 @@
       <c r="KZ9" t="n">
         <v>29</v>
       </c>
-      <c r="LA9" t="inlineStr"/>
+      <c r="LA9" t="n">
+        <v>27.6</v>
+      </c>
       <c r="LB9" t="n">
         <v>29.8</v>
       </c>
@@ -11083,371 +11217,1099 @@
       <c r="E10" t="n">
         <v>31</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
-      <c r="AV10" t="inlineStr"/>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="inlineStr"/>
-      <c r="AY10" t="inlineStr"/>
-      <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="inlineStr"/>
-      <c r="BB10" t="inlineStr"/>
-      <c r="BC10" t="inlineStr"/>
-      <c r="BD10" t="inlineStr"/>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="inlineStr"/>
-      <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="inlineStr"/>
-      <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr"/>
-      <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr"/>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
-      <c r="BX10" t="inlineStr"/>
-      <c r="BY10" t="inlineStr"/>
-      <c r="BZ10" t="inlineStr"/>
-      <c r="CA10" t="inlineStr"/>
-      <c r="CB10" t="inlineStr"/>
-      <c r="CC10" t="inlineStr"/>
-      <c r="CD10" t="inlineStr"/>
-      <c r="CE10" t="inlineStr"/>
-      <c r="CF10" t="inlineStr"/>
-      <c r="CG10" t="inlineStr"/>
-      <c r="CH10" t="inlineStr"/>
-      <c r="CI10" t="inlineStr"/>
-      <c r="CJ10" t="inlineStr"/>
-      <c r="CK10" t="inlineStr"/>
-      <c r="CL10" t="inlineStr"/>
-      <c r="CM10" t="inlineStr"/>
-      <c r="CN10" t="inlineStr"/>
-      <c r="CO10" t="inlineStr"/>
-      <c r="CP10" t="inlineStr"/>
-      <c r="CQ10" t="inlineStr"/>
-      <c r="CR10" t="inlineStr"/>
-      <c r="CS10" t="inlineStr"/>
-      <c r="CT10" t="inlineStr"/>
-      <c r="CU10" t="inlineStr"/>
-      <c r="CV10" t="inlineStr"/>
-      <c r="CW10" t="inlineStr"/>
-      <c r="CX10" t="inlineStr"/>
-      <c r="CY10" t="inlineStr"/>
-      <c r="CZ10" t="inlineStr"/>
-      <c r="DA10" t="inlineStr"/>
-      <c r="DB10" t="inlineStr"/>
-      <c r="DC10" t="inlineStr"/>
-      <c r="DD10" t="inlineStr"/>
-      <c r="DE10" t="inlineStr"/>
-      <c r="DF10" t="inlineStr"/>
-      <c r="DG10" t="inlineStr"/>
-      <c r="DH10" t="inlineStr"/>
-      <c r="DI10" t="inlineStr"/>
-      <c r="DJ10" t="inlineStr"/>
-      <c r="DK10" t="inlineStr"/>
-      <c r="DL10" t="inlineStr"/>
-      <c r="DM10" t="inlineStr"/>
-      <c r="DN10" t="inlineStr"/>
-      <c r="DO10" t="inlineStr"/>
-      <c r="DP10" t="inlineStr"/>
-      <c r="DQ10" t="inlineStr"/>
-      <c r="DR10" t="inlineStr"/>
-      <c r="DS10" t="inlineStr"/>
-      <c r="DT10" t="inlineStr"/>
-      <c r="DU10" t="inlineStr"/>
-      <c r="DV10" t="inlineStr"/>
-      <c r="DW10" t="inlineStr"/>
-      <c r="DX10" t="inlineStr"/>
-      <c r="DY10" t="inlineStr"/>
-      <c r="DZ10" t="inlineStr"/>
-      <c r="EA10" t="inlineStr"/>
-      <c r="EB10" t="inlineStr"/>
-      <c r="EC10" t="inlineStr"/>
-      <c r="ED10" t="inlineStr"/>
-      <c r="EE10" t="inlineStr"/>
-      <c r="EF10" t="inlineStr"/>
-      <c r="EG10" t="inlineStr"/>
-      <c r="EH10" t="inlineStr"/>
-      <c r="EI10" t="inlineStr"/>
-      <c r="EJ10" t="inlineStr"/>
-      <c r="EK10" t="inlineStr"/>
-      <c r="EL10" t="inlineStr"/>
-      <c r="EM10" t="inlineStr"/>
-      <c r="EN10" t="inlineStr"/>
-      <c r="EO10" t="inlineStr"/>
-      <c r="EP10" t="inlineStr"/>
-      <c r="EQ10" t="inlineStr"/>
-      <c r="ER10" t="inlineStr"/>
-      <c r="ES10" t="inlineStr"/>
-      <c r="ET10" t="inlineStr"/>
-      <c r="EU10" t="inlineStr"/>
-      <c r="EV10" t="inlineStr"/>
-      <c r="EW10" t="inlineStr"/>
-      <c r="EX10" t="inlineStr"/>
-      <c r="EY10" t="inlineStr"/>
-      <c r="EZ10" t="inlineStr"/>
-      <c r="FA10" t="inlineStr"/>
-      <c r="FB10" t="inlineStr"/>
-      <c r="FC10" t="inlineStr"/>
-      <c r="FD10" t="inlineStr"/>
-      <c r="FE10" t="inlineStr"/>
-      <c r="FF10" t="inlineStr"/>
-      <c r="FG10" t="inlineStr"/>
-      <c r="FH10" t="inlineStr"/>
-      <c r="FI10" t="inlineStr"/>
-      <c r="FJ10" t="inlineStr"/>
-      <c r="FK10" t="inlineStr"/>
-      <c r="FL10" t="inlineStr"/>
-      <c r="FM10" t="inlineStr"/>
-      <c r="FN10" t="inlineStr"/>
-      <c r="FO10" t="inlineStr"/>
-      <c r="FP10" t="inlineStr"/>
-      <c r="FQ10" t="inlineStr"/>
-      <c r="FR10" t="inlineStr"/>
-      <c r="FS10" t="inlineStr"/>
-      <c r="FT10" t="inlineStr"/>
-      <c r="FU10" t="inlineStr"/>
-      <c r="FV10" t="inlineStr"/>
-      <c r="FW10" t="inlineStr"/>
-      <c r="FX10" t="inlineStr"/>
-      <c r="FY10" t="inlineStr"/>
-      <c r="FZ10" t="inlineStr"/>
-      <c r="GA10" t="inlineStr"/>
-      <c r="GB10" t="inlineStr"/>
-      <c r="GC10" t="inlineStr"/>
-      <c r="GD10" t="inlineStr"/>
-      <c r="GE10" t="inlineStr"/>
-      <c r="GF10" t="inlineStr"/>
-      <c r="GG10" t="inlineStr"/>
-      <c r="GH10" t="inlineStr"/>
-      <c r="GI10" t="inlineStr"/>
-      <c r="GJ10" t="inlineStr"/>
-      <c r="GK10" t="inlineStr"/>
-      <c r="GL10" t="inlineStr"/>
-      <c r="GM10" t="inlineStr"/>
-      <c r="GN10" t="inlineStr"/>
-      <c r="GO10" t="inlineStr"/>
-      <c r="GP10" t="inlineStr"/>
-      <c r="GQ10" t="inlineStr"/>
-      <c r="GR10" t="inlineStr"/>
-      <c r="GS10" t="inlineStr"/>
-      <c r="GT10" t="inlineStr"/>
-      <c r="GU10" t="inlineStr"/>
-      <c r="GV10" t="inlineStr"/>
-      <c r="GW10" t="inlineStr"/>
-      <c r="GX10" t="inlineStr"/>
-      <c r="GY10" t="inlineStr"/>
-      <c r="GZ10" t="inlineStr"/>
-      <c r="HA10" t="inlineStr"/>
-      <c r="HB10" t="inlineStr"/>
-      <c r="HC10" t="inlineStr"/>
-      <c r="HD10" t="inlineStr"/>
-      <c r="HE10" t="inlineStr"/>
-      <c r="HF10" t="inlineStr"/>
-      <c r="HG10" t="inlineStr"/>
-      <c r="HH10" t="inlineStr"/>
-      <c r="HI10" t="inlineStr"/>
-      <c r="HJ10" t="inlineStr"/>
-      <c r="HK10" t="inlineStr"/>
-      <c r="HL10" t="inlineStr"/>
-      <c r="HM10" t="inlineStr"/>
-      <c r="HN10" t="inlineStr"/>
-      <c r="HO10" t="inlineStr"/>
-      <c r="HP10" t="inlineStr"/>
-      <c r="HQ10" t="inlineStr"/>
-      <c r="HR10" t="inlineStr"/>
-      <c r="HS10" t="inlineStr"/>
-      <c r="HT10" t="inlineStr"/>
-      <c r="HU10" t="inlineStr"/>
-      <c r="HV10" t="inlineStr"/>
-      <c r="HW10" t="inlineStr"/>
-      <c r="HX10" t="inlineStr"/>
-      <c r="HY10" t="inlineStr"/>
-      <c r="HZ10" t="inlineStr"/>
-      <c r="IA10" t="inlineStr"/>
-      <c r="IB10" t="inlineStr"/>
-      <c r="IC10" t="inlineStr"/>
-      <c r="ID10" t="inlineStr"/>
-      <c r="IE10" t="inlineStr"/>
-      <c r="IF10" t="inlineStr"/>
-      <c r="IG10" t="inlineStr"/>
-      <c r="IH10" t="inlineStr"/>
-      <c r="II10" t="inlineStr"/>
-      <c r="IJ10" t="inlineStr"/>
-      <c r="IK10" t="inlineStr"/>
-      <c r="IL10" t="inlineStr"/>
-      <c r="IM10" t="inlineStr"/>
-      <c r="IN10" t="inlineStr"/>
-      <c r="IO10" t="inlineStr"/>
-      <c r="IP10" t="inlineStr"/>
-      <c r="IQ10" t="inlineStr"/>
-      <c r="IR10" t="inlineStr"/>
-      <c r="IS10" t="inlineStr"/>
-      <c r="IT10" t="inlineStr"/>
-      <c r="IU10" t="inlineStr"/>
-      <c r="IV10" t="inlineStr"/>
-      <c r="IW10" t="inlineStr"/>
-      <c r="IX10" t="inlineStr"/>
-      <c r="IY10" t="inlineStr"/>
-      <c r="IZ10" t="inlineStr"/>
-      <c r="JA10" t="inlineStr"/>
-      <c r="JB10" t="inlineStr"/>
-      <c r="JC10" t="inlineStr"/>
-      <c r="JD10" t="inlineStr"/>
-      <c r="JE10" t="inlineStr"/>
-      <c r="JF10" t="inlineStr"/>
-      <c r="JG10" t="inlineStr"/>
-      <c r="JH10" t="inlineStr"/>
-      <c r="JI10" t="inlineStr"/>
-      <c r="JJ10" t="inlineStr"/>
-      <c r="JK10" t="inlineStr"/>
-      <c r="JL10" t="inlineStr"/>
-      <c r="JM10" t="inlineStr"/>
-      <c r="JN10" t="inlineStr"/>
-      <c r="JO10" t="inlineStr"/>
-      <c r="JP10" t="inlineStr"/>
-      <c r="JQ10" t="inlineStr"/>
-      <c r="JR10" t="inlineStr"/>
-      <c r="JS10" t="inlineStr"/>
-      <c r="JT10" t="inlineStr"/>
-      <c r="JU10" t="inlineStr"/>
-      <c r="JV10" t="inlineStr"/>
-      <c r="JW10" t="inlineStr"/>
-      <c r="JX10" t="inlineStr"/>
-      <c r="JY10" t="inlineStr"/>
-      <c r="JZ10" t="inlineStr"/>
-      <c r="KA10" t="inlineStr"/>
-      <c r="KB10" t="inlineStr"/>
-      <c r="KC10" t="inlineStr"/>
-      <c r="KD10" t="inlineStr"/>
-      <c r="KE10" t="inlineStr"/>
-      <c r="KF10" t="inlineStr"/>
-      <c r="KG10" t="inlineStr"/>
-      <c r="KH10" t="inlineStr"/>
-      <c r="KI10" t="inlineStr"/>
-      <c r="KJ10" t="inlineStr"/>
-      <c r="KK10" t="inlineStr"/>
-      <c r="KL10" t="inlineStr"/>
-      <c r="KM10" t="inlineStr"/>
-      <c r="KN10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>28</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>28</v>
+      </c>
+      <c r="K10" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="N10" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="O10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>27</v>
+      </c>
+      <c r="R10" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>28</v>
+      </c>
+      <c r="T10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="U10" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="V10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="X10" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>27</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>27</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>27</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>26</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>26</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>28</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>28</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>28</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>27</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="EE10" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="EF10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="EG10" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="EH10" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="EI10" t="n">
+        <v>27</v>
+      </c>
+      <c r="EJ10" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="EK10" t="n">
+        <v>27</v>
+      </c>
+      <c r="EL10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="EM10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="EN10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="EO10" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="EP10" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="EQ10" t="n">
+        <v>28</v>
+      </c>
+      <c r="ER10" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="ES10" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="ET10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="EU10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="EV10" t="n">
+        <v>29</v>
+      </c>
+      <c r="EW10" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="EX10" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="EY10" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="EZ10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="FA10" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="FB10" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="FC10" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="FD10" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="FE10" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="FF10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="FG10" t="n">
+        <v>28</v>
+      </c>
+      <c r="FH10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="FI10" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="FJ10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="FK10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="FL10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="FM10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="FN10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="FO10" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="FP10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="FQ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="FR10" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="FS10" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="FT10" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="FU10" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="FV10" t="n">
+        <v>28</v>
+      </c>
+      <c r="FW10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="FX10" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="FY10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="FZ10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="GA10" t="n">
+        <v>28</v>
+      </c>
+      <c r="GB10" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="GC10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="GD10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="GE10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="GF10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="GG10" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="GH10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="GI10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="GJ10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="GK10" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="GL10" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="GM10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="GN10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="GO10" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="GP10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="GQ10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="GR10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="GS10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="GT10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="GU10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="GV10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="GW10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="GX10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="GY10" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="GZ10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="HA10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="HB10" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="HC10" t="n">
+        <v>28</v>
+      </c>
+      <c r="HD10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="HE10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="HF10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="HG10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="HH10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="HI10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="HJ10" t="n">
+        <v>28</v>
+      </c>
+      <c r="HK10" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="HL10" t="n">
+        <v>28</v>
+      </c>
+      <c r="HM10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="HN10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="HO10" t="n">
+        <v>28</v>
+      </c>
+      <c r="HP10" t="n">
+        <v>27</v>
+      </c>
+      <c r="HQ10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HR10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="HT10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="HU10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HV10" t="n">
+        <v>27</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="HX10" t="n">
+        <v>28</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="HZ10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="IA10" t="n">
+        <v>27</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="IC10" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="ID10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="IE10" t="n">
+        <v>28</v>
+      </c>
+      <c r="IF10" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="IG10" t="n">
+        <v>28</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="II10" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="IJ10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="IK10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="IM10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>28</v>
+      </c>
+      <c r="IO10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="IQ10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="IS10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="IU10" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="IV10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="IX10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="IY10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="IZ10" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="JA10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="JB10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JC10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JD10" t="n">
+        <v>28</v>
+      </c>
+      <c r="JE10" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JF10" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="JG10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JH10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="JI10" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="JJ10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="JK10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JL10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JM10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JN10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="JO10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>28</v>
+      </c>
+      <c r="JQ10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="JT10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="JV10" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="JW10" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="JX10" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="JY10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="JZ10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="KA10" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="KB10" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="KC10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KD10" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="KE10" t="n">
+        <v>30</v>
+      </c>
+      <c r="KF10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="KG10" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="KH10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KI10" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="KJ10" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="KK10" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="KL10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="KM10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="KN10" t="n">
+        <v>28.5</v>
+      </c>
       <c r="KO10" t="inlineStr"/>
-      <c r="KP10" t="inlineStr"/>
-      <c r="KQ10" t="inlineStr"/>
-      <c r="KR10" t="inlineStr"/>
-      <c r="KS10" t="inlineStr"/>
-      <c r="KT10" t="inlineStr"/>
-      <c r="KU10" t="inlineStr"/>
-      <c r="KV10" t="inlineStr"/>
-      <c r="KW10" t="inlineStr"/>
-      <c r="KX10" t="inlineStr"/>
-      <c r="KY10" t="inlineStr"/>
-      <c r="KZ10" t="inlineStr"/>
-      <c r="LA10" t="inlineStr"/>
-      <c r="LB10" t="inlineStr"/>
-      <c r="LC10" t="inlineStr"/>
-      <c r="LD10" t="inlineStr"/>
-      <c r="LE10" t="inlineStr"/>
-      <c r="LF10" t="inlineStr"/>
-      <c r="LG10" t="inlineStr"/>
-      <c r="LH10" t="inlineStr"/>
-      <c r="LI10" t="inlineStr"/>
-      <c r="LJ10" t="inlineStr"/>
-      <c r="LK10" t="inlineStr"/>
-      <c r="LL10" t="inlineStr"/>
-      <c r="LM10" t="inlineStr"/>
-      <c r="LN10" t="inlineStr"/>
-      <c r="LO10" t="inlineStr"/>
-      <c r="LP10" t="inlineStr"/>
-      <c r="LQ10" t="inlineStr"/>
-      <c r="LR10" t="inlineStr"/>
-      <c r="LS10" t="inlineStr"/>
-      <c r="LT10" t="inlineStr"/>
-      <c r="LU10" t="inlineStr"/>
-      <c r="LV10" t="inlineStr"/>
-      <c r="LW10" t="inlineStr"/>
-      <c r="LX10" t="inlineStr"/>
-      <c r="LY10" t="inlineStr"/>
-      <c r="LZ10" t="inlineStr"/>
-      <c r="MA10" t="inlineStr"/>
-      <c r="MB10" t="inlineStr"/>
-      <c r="MC10" t="inlineStr"/>
-      <c r="MD10" t="inlineStr"/>
-      <c r="ME10" t="inlineStr"/>
-      <c r="MF10" t="inlineStr"/>
-      <c r="MG10" t="inlineStr"/>
-      <c r="MH10" t="inlineStr"/>
-      <c r="MI10" t="inlineStr"/>
-      <c r="MJ10" t="inlineStr"/>
-      <c r="MK10" t="inlineStr"/>
-      <c r="ML10" t="inlineStr"/>
-      <c r="MM10" t="inlineStr"/>
-      <c r="MN10" t="inlineStr"/>
-      <c r="MO10" t="inlineStr"/>
-      <c r="MP10" t="inlineStr"/>
-      <c r="MQ10" t="inlineStr"/>
-      <c r="MR10" t="inlineStr"/>
-      <c r="MS10" t="inlineStr"/>
-      <c r="MT10" t="inlineStr"/>
-      <c r="MU10" t="inlineStr"/>
-      <c r="MV10" t="inlineStr"/>
-      <c r="MW10" t="inlineStr"/>
-      <c r="MX10" t="inlineStr"/>
-      <c r="MY10" t="inlineStr"/>
-      <c r="MZ10" t="inlineStr"/>
-      <c r="NA10" t="inlineStr"/>
-      <c r="NB10" t="inlineStr"/>
-      <c r="NC10" t="inlineStr"/>
-      <c r="ND10" t="inlineStr"/>
-      <c r="NE10" t="inlineStr"/>
-      <c r="NF10" t="inlineStr"/>
+      <c r="KP10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="KQ10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="KR10" t="n">
+        <v>29</v>
+      </c>
+      <c r="KS10" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="KT10" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="KU10" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="KV10" t="n">
+        <v>30</v>
+      </c>
+      <c r="KW10" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="KX10" t="n">
+        <v>30</v>
+      </c>
+      <c r="KY10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="KZ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="LA10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="LB10" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="LC10" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="LD10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="LE10" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="LF10" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="LG10" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="LH10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="LI10" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="LJ10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="LK10" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="LL10" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="LM10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="LN10" t="n">
+        <v>29</v>
+      </c>
+      <c r="LO10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="LP10" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="LQ10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="LR10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="LS10" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="LT10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="LU10" t="n">
+        <v>28</v>
+      </c>
+      <c r="LV10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="LW10" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="LX10" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="LY10" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="LZ10" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="MA10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="MB10" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="MC10" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="MD10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="ME10" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="MF10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="MG10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="MH10" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="MI10" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="MJ10" t="n">
+        <v>28</v>
+      </c>
+      <c r="MK10" t="n">
+        <v>29</v>
+      </c>
+      <c r="ML10" t="n">
+        <v>28</v>
+      </c>
+      <c r="MM10" t="n">
+        <v>28</v>
+      </c>
+      <c r="MN10" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="MO10" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="MP10" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="MQ10" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="MR10" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="MS10" t="n">
+        <v>28</v>
+      </c>
+      <c r="MT10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="MU10" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="MV10" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="MW10" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="MX10" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="MY10" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="MZ10" t="n">
+        <v>28</v>
+      </c>
+      <c r="NA10" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="NB10" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="NC10" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="ND10" t="n">
+        <v>29</v>
+      </c>
+      <c r="NE10" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="NF10" t="n">
+        <v>27.6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -12586,8 +13448,12 @@
       <c r="F12" t="n">
         <v>27.8</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>26.5</v>
+      </c>
       <c r="I12" t="n">
         <v>26.6</v>
       </c>
@@ -12597,11 +13463,15 @@
       <c r="K12" t="n">
         <v>27.8</v>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>26.5</v>
+      </c>
       <c r="M12" t="n">
         <v>24.6</v>
       </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>25.3</v>
+      </c>
       <c r="O12" t="n">
         <v>25.6</v>
       </c>
@@ -12632,7 +13502,9 @@
       <c r="X12" t="n">
         <v>27.6</v>
       </c>
-      <c r="Y12" t="inlineStr"/>
+      <c r="Y12" t="n">
+        <v>25.1</v>
+      </c>
       <c r="Z12" t="n">
         <v>26.4</v>
       </c>
@@ -12690,7 +13562,9 @@
       <c r="AR12" t="n">
         <v>25.9</v>
       </c>
-      <c r="AS12" t="inlineStr"/>
+      <c r="AS12" t="n">
+        <v>26.8</v>
+      </c>
       <c r="AT12" t="n">
         <v>27.7</v>
       </c>
@@ -12700,7 +13574,9 @@
       <c r="AV12" t="n">
         <v>27.6</v>
       </c>
-      <c r="AW12" t="inlineStr"/>
+      <c r="AW12" t="n">
+        <v>25.4</v>
+      </c>
       <c r="AX12" t="n">
         <v>26.5</v>
       </c>
@@ -12776,7 +13652,9 @@
       <c r="BV12" t="n">
         <v>27.9</v>
       </c>
-      <c r="BW12" t="inlineStr"/>
+      <c r="BW12" t="n">
+        <v>26.7</v>
+      </c>
       <c r="BX12" t="n">
         <v>27.3</v>
       </c>
@@ -12789,7 +13667,9 @@
       <c r="CA12" t="n">
         <v>26.4</v>
       </c>
-      <c r="CB12" t="inlineStr"/>
+      <c r="CB12" t="n">
+        <v>27.1</v>
+      </c>
       <c r="CC12" t="n">
         <v>27.6</v>
       </c>
@@ -12832,7 +13712,9 @@
       <c r="CP12" t="n">
         <v>27.8</v>
       </c>
-      <c r="CQ12" t="inlineStr"/>
+      <c r="CQ12" t="n">
+        <v>26.7</v>
+      </c>
       <c r="CR12" t="n">
         <v>27.4</v>
       </c>
@@ -12947,7 +13829,9 @@
       <c r="EC12" t="n">
         <v>27.3</v>
       </c>
-      <c r="ED12" t="inlineStr"/>
+      <c r="ED12" t="n">
+        <v>27.6</v>
+      </c>
       <c r="EE12" t="n">
         <v>28.2</v>
       </c>
@@ -12960,7 +13844,9 @@
       <c r="EH12" t="n">
         <v>28.6</v>
       </c>
-      <c r="EI12" t="inlineStr"/>
+      <c r="EI12" t="n">
+        <v>27.7</v>
+      </c>
       <c r="EJ12" t="n">
         <v>27.5</v>
       </c>
@@ -12985,7 +13871,9 @@
       <c r="EQ12" t="n">
         <v>25.1</v>
       </c>
-      <c r="ER12" t="inlineStr"/>
+      <c r="ER12" t="n">
+        <v>26.3</v>
+      </c>
       <c r="ES12" t="n">
         <v>27.9</v>
       </c>
@@ -12998,7 +13886,9 @@
       <c r="EV12" t="n">
         <v>28.1</v>
       </c>
-      <c r="EW12" t="inlineStr"/>
+      <c r="EW12" t="n">
+        <v>27.1</v>
+      </c>
       <c r="EX12" t="n">
         <v>28.6</v>
       </c>
@@ -13020,7 +13910,9 @@
       <c r="FD12" t="n">
         <v>28.4</v>
       </c>
-      <c r="FE12" t="inlineStr"/>
+      <c r="FE12" t="n">
+        <v>25</v>
+      </c>
       <c r="FF12" t="n">
         <v>27.5</v>
       </c>
@@ -13051,14 +13943,18 @@
       <c r="FO12" t="n">
         <v>27.2</v>
       </c>
-      <c r="FP12" t="inlineStr"/>
+      <c r="FP12" t="n">
+        <v>26.3</v>
+      </c>
       <c r="FQ12" t="n">
         <v>27.9</v>
       </c>
       <c r="FR12" t="n">
         <v>28</v>
       </c>
-      <c r="FS12" t="inlineStr"/>
+      <c r="FS12" t="n">
+        <v>26.7</v>
+      </c>
       <c r="FT12" t="n">
         <v>27.4</v>
       </c>
@@ -13128,7 +14024,9 @@
       <c r="GP12" t="n">
         <v>28.5</v>
       </c>
-      <c r="GQ12" t="inlineStr"/>
+      <c r="GQ12" t="n">
+        <v>26.7</v>
+      </c>
       <c r="GR12" t="n">
         <v>26.8</v>
       </c>
@@ -13186,7 +14084,9 @@
       <c r="HJ12" t="n">
         <v>29.1</v>
       </c>
-      <c r="HK12" t="inlineStr"/>
+      <c r="HK12" t="n">
+        <v>27.3</v>
+      </c>
       <c r="HL12" t="n">
         <v>29.1</v>
       </c>
@@ -13226,14 +14126,18 @@
       <c r="HX12" t="n">
         <v>27.8</v>
       </c>
-      <c r="HY12" t="inlineStr"/>
+      <c r="HY12" t="n">
+        <v>27.2</v>
+      </c>
       <c r="HZ12" t="n">
         <v>27.4</v>
       </c>
       <c r="IA12" t="n">
         <v>27.1</v>
       </c>
-      <c r="IB12" t="inlineStr"/>
+      <c r="IB12" t="n">
+        <v>27.8</v>
+      </c>
       <c r="IC12" t="n">
         <v>28.2</v>
       </c>
@@ -13258,7 +14162,9 @@
       <c r="IJ12" t="n">
         <v>29.3</v>
       </c>
-      <c r="IK12" t="inlineStr"/>
+      <c r="IK12" t="n">
+        <v>26.6</v>
+      </c>
       <c r="IL12" t="n">
         <v>29.4</v>
       </c>
@@ -13376,7 +14282,9 @@
       <c r="JX12" t="n">
         <v>28.9</v>
       </c>
-      <c r="JY12" t="inlineStr"/>
+      <c r="JY12" t="n">
+        <v>27</v>
+      </c>
       <c r="JZ12" t="n">
         <v>29</v>
       </c>
@@ -13386,23 +14294,39 @@
       <c r="KB12" t="n">
         <v>28.6</v>
       </c>
-      <c r="KC12" t="inlineStr"/>
+      <c r="KC12" t="n">
+        <v>27.5</v>
+      </c>
       <c r="KD12" t="n">
         <v>28.3</v>
       </c>
       <c r="KE12" t="n">
         <v>26.7</v>
       </c>
-      <c r="KF12" t="inlineStr"/>
-      <c r="KG12" t="inlineStr"/>
-      <c r="KH12" t="inlineStr"/>
-      <c r="KI12" t="inlineStr"/>
+      <c r="KF12" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="KG12" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="KH12" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="KI12" t="n">
+        <v>27.6</v>
+      </c>
       <c r="KJ12" t="n">
         <v>28.7</v>
       </c>
-      <c r="KK12" t="inlineStr"/>
-      <c r="KL12" t="inlineStr"/>
-      <c r="KM12" t="inlineStr"/>
+      <c r="KK12" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="KL12" t="n">
+        <v>30</v>
+      </c>
+      <c r="KM12" t="n">
+        <v>27.5</v>
+      </c>
       <c r="KN12" t="n">
         <v>26.1</v>
       </c>
@@ -13419,7 +14343,9 @@
       <c r="KS12" t="n">
         <v>28.4</v>
       </c>
-      <c r="KT12" t="inlineStr"/>
+      <c r="KT12" t="n">
+        <v>27.8</v>
+      </c>
       <c r="KU12" t="n">
         <v>29.1</v>
       </c>
@@ -13537,7 +14463,9 @@
       <c r="MG12" t="n">
         <v>29.6</v>
       </c>
-      <c r="MH12" t="inlineStr"/>
+      <c r="MH12" t="n">
+        <v>27.7</v>
+      </c>
       <c r="MI12" t="n">
         <v>26.2</v>
       </c>
@@ -13577,7 +14505,9 @@
       <c r="MU12" t="n">
         <v>28.7</v>
       </c>
-      <c r="MV12" t="inlineStr"/>
+      <c r="MV12" t="n">
+        <v>26.7</v>
+      </c>
       <c r="MW12" t="n">
         <v>25.8</v>
       </c>
@@ -14758,8 +15688,12 @@
       <c r="J14" t="n">
         <v>22</v>
       </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>26</v>
+      </c>
       <c r="M14" t="n">
         <v>21.3</v>
       </c>
@@ -14811,7 +15745,9 @@
       <c r="AC14" t="n">
         <v>21.6</v>
       </c>
-      <c r="AD14" t="inlineStr"/>
+      <c r="AD14" t="n">
+        <v>26.2</v>
+      </c>
       <c r="AE14" t="n">
         <v>21.2</v>
       </c>
@@ -14827,7 +15763,9 @@
       <c r="AI14" t="n">
         <v>22.7</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="AJ14" t="n">
+        <v>25.3</v>
+      </c>
       <c r="AK14" t="n">
         <v>21.4</v>
       </c>
@@ -14855,7 +15793,9 @@
       <c r="AS14" t="n">
         <v>22.1</v>
       </c>
-      <c r="AT14" t="inlineStr"/>
+      <c r="AT14" t="n">
+        <v>27.9</v>
+      </c>
       <c r="AU14" t="n">
         <v>22.7</v>
       </c>
@@ -15435,7 +16375,9 @@
       <c r="IE14" t="n">
         <v>22.9</v>
       </c>
-      <c r="IF14" t="inlineStr"/>
+      <c r="IF14" t="n">
+        <v>25.8</v>
+      </c>
       <c r="IG14" t="n">
         <v>23</v>
       </c>
@@ -15523,7 +16465,9 @@
       <c r="JI14" t="n">
         <v>22.9</v>
       </c>
-      <c r="JJ14" t="inlineStr"/>
+      <c r="JJ14" t="n">
+        <v>28</v>
+      </c>
       <c r="JK14" t="n">
         <v>22</v>
       </c>
@@ -15909,7 +16853,9 @@
       <c r="AA15" t="n">
         <v>27.7</v>
       </c>
-      <c r="AB15" t="inlineStr"/>
+      <c r="AB15" t="n">
+        <v>22.1</v>
+      </c>
       <c r="AC15" t="n">
         <v>28.3</v>
       </c>
@@ -16036,7 +16982,9 @@
       <c r="BR15" t="n">
         <v>27.8</v>
       </c>
-      <c r="BS15" t="inlineStr"/>
+      <c r="BS15" t="n">
+        <v>22</v>
+      </c>
       <c r="BT15" t="n">
         <v>27.8</v>
       </c>
@@ -16737,7 +17685,9 @@
       <c r="KS15" t="n">
         <v>28.8</v>
       </c>
-      <c r="KT15" t="inlineStr"/>
+      <c r="KT15" t="n">
+        <v>23.3</v>
+      </c>
       <c r="KU15" t="n">
         <v>29.2</v>
       </c>
@@ -16963,7 +17913,9 @@
       <c r="I16" t="n">
         <v>26.4</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>26.3</v>
+      </c>
       <c r="K16" t="n">
         <v>26.7</v>
       </c>
@@ -16985,7 +17937,9 @@
       <c r="Q16" t="n">
         <v>27.2</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>27.2</v>
+      </c>
       <c r="S16" t="n">
         <v>28</v>
       </c>
@@ -16995,7 +17949,9 @@
       <c r="U16" t="n">
         <v>26.7</v>
       </c>
-      <c r="V16" t="inlineStr"/>
+      <c r="V16" t="n">
+        <v>27.1</v>
+      </c>
       <c r="W16" t="n">
         <v>27.2</v>
       </c>
@@ -17077,7 +18033,9 @@
       <c r="AW16" t="n">
         <v>26.9</v>
       </c>
-      <c r="AX16" t="inlineStr"/>
+      <c r="AX16" t="n">
+        <v>26.8</v>
+      </c>
       <c r="AY16" t="n">
         <v>28.4</v>
       </c>
@@ -17096,7 +18054,9 @@
       <c r="BD16" t="n">
         <v>26.9</v>
       </c>
-      <c r="BE16" t="inlineStr"/>
+      <c r="BE16" t="n">
+        <v>26.8</v>
+      </c>
       <c r="BF16" t="n">
         <v>26.5</v>
       </c>
@@ -17142,7 +18102,9 @@
       <c r="BT16" t="n">
         <v>28</v>
       </c>
-      <c r="BU16" t="inlineStr"/>
+      <c r="BU16" t="n">
+        <v>28.2</v>
+      </c>
       <c r="BV16" t="n">
         <v>28.5</v>
       </c>
@@ -17197,7 +18159,9 @@
       <c r="CM16" t="n">
         <v>26.9</v>
       </c>
-      <c r="CN16" t="inlineStr"/>
+      <c r="CN16" t="n">
+        <v>27</v>
+      </c>
       <c r="CO16" t="n">
         <v>27.3</v>
       </c>
@@ -17222,7 +18186,9 @@
       <c r="CV16" t="n">
         <v>26.8</v>
       </c>
-      <c r="CW16" t="inlineStr"/>
+      <c r="CW16" t="n">
+        <v>26.7</v>
+      </c>
       <c r="CX16" t="n">
         <v>27.5</v>
       </c>
@@ -17238,7 +18204,9 @@
       <c r="DB16" t="n">
         <v>27.9</v>
       </c>
-      <c r="DC16" t="inlineStr"/>
+      <c r="DC16" t="n">
+        <v>28.9</v>
+      </c>
       <c r="DD16" t="n">
         <v>28.3</v>
       </c>
@@ -17263,7 +18231,9 @@
       <c r="DK16" t="n">
         <v>29.3</v>
       </c>
-      <c r="DL16" t="inlineStr"/>
+      <c r="DL16" t="n">
+        <v>28.3</v>
+      </c>
       <c r="DM16" t="n">
         <v>28.3</v>
       </c>
@@ -17279,7 +18249,9 @@
       <c r="DQ16" t="n">
         <v>27.6</v>
       </c>
-      <c r="DR16" t="inlineStr"/>
+      <c r="DR16" t="n">
+        <v>28.5</v>
+      </c>
       <c r="DS16" t="n">
         <v>28.7</v>
       </c>
@@ -17292,7 +18264,9 @@
       <c r="DV16" t="n">
         <v>28.2</v>
       </c>
-      <c r="DW16" t="inlineStr"/>
+      <c r="DW16" t="n">
+        <v>29.1</v>
+      </c>
       <c r="DX16" t="n">
         <v>29.2</v>
       </c>
@@ -17302,7 +18276,9 @@
       <c r="DZ16" t="n">
         <v>28.9</v>
       </c>
-      <c r="EA16" t="inlineStr"/>
+      <c r="EA16" t="n">
+        <v>28.2</v>
+      </c>
       <c r="EB16" t="n">
         <v>27.9</v>
       </c>
@@ -17567,7 +18543,9 @@
       <c r="HK16" t="n">
         <v>27.6</v>
       </c>
-      <c r="HL16" t="inlineStr"/>
+      <c r="HL16" t="n">
+        <v>28.1</v>
+      </c>
       <c r="HM16" t="n">
         <v>28.9</v>
       </c>
@@ -17634,7 +18612,9 @@
       <c r="IH16" t="n">
         <v>29.4</v>
       </c>
-      <c r="II16" t="inlineStr"/>
+      <c r="II16" t="n">
+        <v>28.5</v>
+      </c>
       <c r="IJ16" t="n">
         <v>28.5</v>
       </c>
@@ -17677,15 +18657,21 @@
       <c r="IW16" t="n">
         <v>26.1</v>
       </c>
-      <c r="IX16" t="inlineStr"/>
+      <c r="IX16" t="n">
+        <v>27.9</v>
+      </c>
       <c r="IY16" t="n">
         <v>26</v>
       </c>
-      <c r="IZ16" t="inlineStr"/>
+      <c r="IZ16" t="n">
+        <v>27.8</v>
+      </c>
       <c r="JA16" t="n">
         <v>27.9</v>
       </c>
-      <c r="JB16" t="inlineStr"/>
+      <c r="JB16" t="n">
+        <v>27</v>
+      </c>
       <c r="JC16" t="n">
         <v>26.6</v>
       </c>
@@ -17713,15 +18699,27 @@
       <c r="JK16" t="n">
         <v>28.7</v>
       </c>
-      <c r="JL16" t="inlineStr"/>
-      <c r="JM16" t="inlineStr"/>
-      <c r="JN16" t="inlineStr"/>
+      <c r="JL16" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="JM16" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="JN16" t="n">
+        <v>27</v>
+      </c>
       <c r="JO16" t="n">
         <v>28.2</v>
       </c>
-      <c r="JP16" t="inlineStr"/>
-      <c r="JQ16" t="inlineStr"/>
-      <c r="JR16" t="inlineStr"/>
+      <c r="JP16" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="JQ16" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>27.9</v>
+      </c>
       <c r="JS16" t="n">
         <v>28.7</v>
       </c>
@@ -17749,7 +18747,9 @@
       <c r="KA16" t="n">
         <v>27.9</v>
       </c>
-      <c r="KB16" t="inlineStr"/>
+      <c r="KB16" t="n">
+        <v>27</v>
+      </c>
       <c r="KC16" t="n">
         <v>28.5</v>
       </c>
@@ -17790,7 +18790,9 @@
       <c r="KP16" t="n">
         <v>29.5</v>
       </c>
-      <c r="KQ16" t="inlineStr"/>
+      <c r="KQ16" t="n">
+        <v>29.1</v>
+      </c>
       <c r="KR16" t="n">
         <v>27.6</v>
       </c>
@@ -18013,143 +19015,411 @@
       <c r="E17" t="n">
         <v>43</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="inlineStr"/>
-      <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
-      <c r="BN17" t="inlineStr"/>
-      <c r="BO17" t="inlineStr"/>
-      <c r="BP17" t="inlineStr"/>
-      <c r="BQ17" t="inlineStr"/>
-      <c r="BR17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="N17" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="P17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="S17" t="n">
+        <v>28</v>
+      </c>
+      <c r="T17" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="U17" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="V17" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="X17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>28</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>27</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>26</v>
+      </c>
       <c r="BS17" t="n">
         <v>27.6</v>
       </c>
-      <c r="BT17" t="inlineStr"/>
-      <c r="BU17" t="inlineStr"/>
-      <c r="BV17" t="inlineStr"/>
-      <c r="BW17" t="inlineStr"/>
-      <c r="BX17" t="inlineStr"/>
-      <c r="BY17" t="inlineStr"/>
-      <c r="BZ17" t="inlineStr"/>
-      <c r="CA17" t="inlineStr"/>
-      <c r="CB17" t="inlineStr"/>
-      <c r="CC17" t="inlineStr"/>
-      <c r="CD17" t="inlineStr"/>
-      <c r="CE17" t="inlineStr"/>
-      <c r="CF17" t="inlineStr"/>
-      <c r="CG17" t="inlineStr"/>
-      <c r="CH17" t="inlineStr"/>
-      <c r="CI17" t="inlineStr"/>
-      <c r="CJ17" t="inlineStr"/>
-      <c r="CK17" t="inlineStr"/>
-      <c r="CL17" t="inlineStr"/>
-      <c r="CM17" t="inlineStr"/>
-      <c r="CN17" t="inlineStr"/>
-      <c r="CO17" t="inlineStr"/>
-      <c r="CP17" t="inlineStr"/>
-      <c r="CQ17" t="inlineStr"/>
-      <c r="CR17" t="inlineStr"/>
-      <c r="CS17" t="inlineStr"/>
-      <c r="CT17" t="inlineStr"/>
-      <c r="CU17" t="inlineStr"/>
-      <c r="CV17" t="inlineStr"/>
-      <c r="CW17" t="inlineStr"/>
-      <c r="CX17" t="inlineStr"/>
-      <c r="CY17" t="inlineStr"/>
-      <c r="CZ17" t="inlineStr"/>
-      <c r="DA17" t="inlineStr"/>
-      <c r="DB17" t="inlineStr"/>
-      <c r="DC17" t="inlineStr"/>
-      <c r="DD17" t="inlineStr"/>
-      <c r="DE17" t="inlineStr"/>
-      <c r="DF17" t="inlineStr"/>
-      <c r="DG17" t="inlineStr"/>
-      <c r="DH17" t="inlineStr"/>
-      <c r="DI17" t="inlineStr"/>
-      <c r="DJ17" t="inlineStr"/>
-      <c r="DK17" t="inlineStr"/>
-      <c r="DL17" t="inlineStr"/>
-      <c r="DM17" t="inlineStr"/>
-      <c r="DN17" t="inlineStr"/>
-      <c r="DO17" t="inlineStr"/>
-      <c r="DP17" t="inlineStr"/>
-      <c r="DQ17" t="inlineStr"/>
-      <c r="DR17" t="inlineStr"/>
-      <c r="DS17" t="inlineStr"/>
-      <c r="DT17" t="inlineStr"/>
-      <c r="DU17" t="inlineStr"/>
-      <c r="DV17" t="inlineStr"/>
-      <c r="DW17" t="inlineStr"/>
-      <c r="DX17" t="inlineStr"/>
-      <c r="DY17" t="inlineStr"/>
-      <c r="DZ17" t="inlineStr"/>
-      <c r="EA17" t="inlineStr"/>
-      <c r="EB17" t="inlineStr"/>
-      <c r="EC17" t="inlineStr"/>
-      <c r="ED17" t="inlineStr"/>
-      <c r="EE17" t="inlineStr"/>
-      <c r="EF17" t="inlineStr"/>
-      <c r="EG17" t="inlineStr"/>
-      <c r="EH17" t="inlineStr"/>
-      <c r="EI17" t="inlineStr"/>
-      <c r="EJ17" t="inlineStr"/>
+      <c r="BT17" t="n">
+        <v>28</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>27</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>27</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>27</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="DM17" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="DN17" t="n">
+        <v>28</v>
+      </c>
+      <c r="DO17" t="n">
+        <v>29</v>
+      </c>
+      <c r="DP17" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="DQ17" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="DR17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="DS17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="DT17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="DU17" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="DV17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="DW17" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="DX17" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="DY17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="DZ17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="EA17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="EB17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="EC17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="ED17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="EE17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="EF17" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="EG17" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="EH17" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="EI17" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="EJ17" t="n">
+        <v>27.7</v>
+      </c>
       <c r="EK17" t="n">
         <v>29.3</v>
       </c>
@@ -18171,27 +19441,69 @@
       <c r="EQ17" t="n">
         <v>27.7</v>
       </c>
-      <c r="ER17" t="inlineStr"/>
-      <c r="ES17" t="inlineStr"/>
-      <c r="ET17" t="inlineStr"/>
-      <c r="EU17" t="inlineStr"/>
-      <c r="EV17" t="inlineStr"/>
-      <c r="EW17" t="inlineStr"/>
-      <c r="EX17" t="inlineStr"/>
-      <c r="EY17" t="inlineStr"/>
-      <c r="EZ17" t="inlineStr"/>
-      <c r="FA17" t="inlineStr"/>
-      <c r="FB17" t="inlineStr"/>
-      <c r="FC17" t="inlineStr"/>
-      <c r="FD17" t="inlineStr"/>
-      <c r="FE17" t="inlineStr"/>
-      <c r="FF17" t="inlineStr"/>
-      <c r="FG17" t="inlineStr"/>
-      <c r="FH17" t="inlineStr"/>
-      <c r="FI17" t="inlineStr"/>
-      <c r="FJ17" t="inlineStr"/>
-      <c r="FK17" t="inlineStr"/>
-      <c r="FL17" t="inlineStr"/>
+      <c r="ER17" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="ES17" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="ET17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="EU17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="EV17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="EW17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="EX17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="EY17" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="EZ17" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="FA17" t="n">
+        <v>29</v>
+      </c>
+      <c r="FB17" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="FC17" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="FD17" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="FE17" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="FF17" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="FG17" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="FH17" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="FI17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="FJ17" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="FK17" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="FL17" t="n">
+        <v>28.1</v>
+      </c>
       <c r="FM17" t="n">
         <v>29.2</v>
       </c>
@@ -18201,42 +19513,96 @@
       <c r="FO17" t="n">
         <v>26.5</v>
       </c>
-      <c r="FP17" t="inlineStr"/>
-      <c r="FQ17" t="inlineStr"/>
-      <c r="FR17" t="inlineStr"/>
-      <c r="FS17" t="inlineStr"/>
-      <c r="FT17" t="inlineStr"/>
+      <c r="FP17" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="FQ17" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="FR17" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="FS17" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="FT17" t="n">
+        <v>27.5</v>
+      </c>
       <c r="FU17" t="n">
         <v>28.5</v>
       </c>
-      <c r="FV17" t="inlineStr"/>
-      <c r="FW17" t="inlineStr"/>
-      <c r="FX17" t="inlineStr"/>
-      <c r="FY17" t="inlineStr"/>
-      <c r="FZ17" t="inlineStr"/>
-      <c r="GA17" t="inlineStr"/>
-      <c r="GB17" t="inlineStr"/>
-      <c r="GC17" t="inlineStr"/>
-      <c r="GD17" t="inlineStr"/>
-      <c r="GE17" t="inlineStr"/>
-      <c r="GF17" t="inlineStr"/>
-      <c r="GG17" t="inlineStr"/>
-      <c r="GH17" t="inlineStr"/>
-      <c r="GI17" t="inlineStr"/>
-      <c r="GJ17" t="inlineStr"/>
-      <c r="GK17" t="inlineStr"/>
-      <c r="GL17" t="inlineStr"/>
-      <c r="GM17" t="inlineStr"/>
-      <c r="GN17" t="inlineStr"/>
-      <c r="GO17" t="inlineStr"/>
+      <c r="FV17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="FW17" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="FX17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="FY17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="FZ17" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="GA17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="GB17" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="GC17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="GD17" t="n">
+        <v>29</v>
+      </c>
+      <c r="GE17" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="GF17" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="GG17" t="n">
+        <v>27</v>
+      </c>
+      <c r="GH17" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="GI17" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="GJ17" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="GK17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="GL17" t="n">
+        <v>26</v>
+      </c>
+      <c r="GM17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="GN17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="GO17" t="n">
+        <v>29.2</v>
+      </c>
       <c r="GP17" t="n">
         <v>27.1</v>
       </c>
       <c r="GQ17" t="n">
         <v>28.4</v>
       </c>
-      <c r="GR17" t="inlineStr"/>
-      <c r="GS17" t="inlineStr"/>
+      <c r="GR17" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="GS17" t="n">
+        <v>27.8</v>
+      </c>
       <c r="GT17" t="n">
         <v>27.3</v>
       </c>
@@ -18261,7 +19627,9 @@
       <c r="HA17" t="n">
         <v>28.8</v>
       </c>
-      <c r="HB17" t="inlineStr"/>
+      <c r="HB17" t="n">
+        <v>27.7</v>
+      </c>
       <c r="HC17" t="n">
         <v>28.6</v>
       </c>
@@ -18271,107 +19639,295 @@
       <c r="HE17" t="n">
         <v>29.2</v>
       </c>
-      <c r="HF17" t="inlineStr"/>
-      <c r="HG17" t="inlineStr"/>
-      <c r="HH17" t="inlineStr"/>
-      <c r="HI17" t="inlineStr"/>
-      <c r="HJ17" t="inlineStr"/>
-      <c r="HK17" t="inlineStr"/>
-      <c r="HL17" t="inlineStr"/>
-      <c r="HM17" t="inlineStr"/>
-      <c r="HN17" t="inlineStr"/>
-      <c r="HO17" t="inlineStr"/>
-      <c r="HP17" t="inlineStr"/>
-      <c r="HQ17" t="inlineStr"/>
-      <c r="HR17" t="inlineStr"/>
-      <c r="HS17" t="inlineStr"/>
-      <c r="HT17" t="inlineStr"/>
-      <c r="HU17" t="inlineStr"/>
-      <c r="HV17" t="inlineStr"/>
-      <c r="HW17" t="inlineStr"/>
-      <c r="HX17" t="inlineStr"/>
-      <c r="HY17" t="inlineStr"/>
-      <c r="HZ17" t="inlineStr"/>
-      <c r="IA17" t="inlineStr"/>
-      <c r="IB17" t="inlineStr"/>
-      <c r="IC17" t="inlineStr"/>
-      <c r="ID17" t="inlineStr"/>
-      <c r="IE17" t="inlineStr"/>
-      <c r="IF17" t="inlineStr"/>
-      <c r="IG17" t="inlineStr"/>
-      <c r="IH17" t="inlineStr"/>
-      <c r="II17" t="inlineStr"/>
-      <c r="IJ17" t="inlineStr"/>
-      <c r="IK17" t="inlineStr"/>
-      <c r="IL17" t="inlineStr"/>
-      <c r="IM17" t="inlineStr"/>
-      <c r="IN17" t="inlineStr"/>
-      <c r="IO17" t="inlineStr"/>
-      <c r="IP17" t="inlineStr"/>
-      <c r="IQ17" t="inlineStr"/>
-      <c r="IR17" t="inlineStr"/>
-      <c r="IS17" t="inlineStr"/>
-      <c r="IT17" t="inlineStr"/>
-      <c r="IU17" t="inlineStr"/>
-      <c r="IV17" t="inlineStr"/>
-      <c r="IW17" t="inlineStr"/>
-      <c r="IX17" t="inlineStr"/>
-      <c r="IY17" t="inlineStr"/>
-      <c r="IZ17" t="inlineStr"/>
-      <c r="JA17" t="inlineStr"/>
-      <c r="JB17" t="inlineStr"/>
-      <c r="JC17" t="inlineStr"/>
-      <c r="JD17" t="inlineStr"/>
-      <c r="JE17" t="inlineStr"/>
-      <c r="JF17" t="inlineStr"/>
-      <c r="JG17" t="inlineStr"/>
-      <c r="JH17" t="inlineStr"/>
-      <c r="JI17" t="inlineStr"/>
-      <c r="JJ17" t="inlineStr"/>
-      <c r="JK17" t="inlineStr"/>
-      <c r="JL17" t="inlineStr"/>
-      <c r="JM17" t="inlineStr"/>
-      <c r="JN17" t="inlineStr"/>
-      <c r="JO17" t="inlineStr"/>
-      <c r="JP17" t="inlineStr"/>
-      <c r="JQ17" t="inlineStr"/>
-      <c r="JR17" t="inlineStr"/>
-      <c r="JS17" t="inlineStr"/>
-      <c r="JT17" t="inlineStr"/>
-      <c r="JU17" t="inlineStr"/>
-      <c r="JV17" t="inlineStr"/>
-      <c r="JW17" t="inlineStr"/>
-      <c r="JX17" t="inlineStr"/>
-      <c r="JY17" t="inlineStr"/>
-      <c r="JZ17" t="inlineStr"/>
-      <c r="KA17" t="inlineStr"/>
-      <c r="KB17" t="inlineStr"/>
-      <c r="KC17" t="inlineStr"/>
-      <c r="KD17" t="inlineStr"/>
-      <c r="KE17" t="inlineStr"/>
-      <c r="KF17" t="inlineStr"/>
-      <c r="KG17" t="inlineStr"/>
-      <c r="KH17" t="inlineStr"/>
-      <c r="KI17" t="inlineStr"/>
-      <c r="KJ17" t="inlineStr"/>
-      <c r="KK17" t="inlineStr"/>
-      <c r="KL17" t="inlineStr"/>
-      <c r="KM17" t="inlineStr"/>
-      <c r="KN17" t="inlineStr"/>
+      <c r="HF17" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="HG17" t="n">
+        <v>29</v>
+      </c>
+      <c r="HH17" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="HI17" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="HJ17" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="HK17" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="HL17" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="HM17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="HN17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="HO17" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="HP17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="HQ17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="HR17" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="HS17" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="HT17" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="HU17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="HV17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="HX17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="HZ17" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="IA17" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="IB17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="IC17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="ID17" t="n">
+        <v>28</v>
+      </c>
+      <c r="IE17" t="n">
+        <v>28</v>
+      </c>
+      <c r="IF17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="IG17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="IH17" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="II17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="IJ17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="IK17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="IL17" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="IM17" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="IO17" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="IP17" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="IQ17" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="IS17" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="IU17" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="IV17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="IW17" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="IX17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="IY17" t="n">
+        <v>26</v>
+      </c>
+      <c r="IZ17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="JA17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JB17" t="n">
+        <v>27</v>
+      </c>
+      <c r="JC17" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="JD17" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="JE17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JF17" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="JG17" t="n">
+        <v>28</v>
+      </c>
+      <c r="JH17" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JI17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="JJ17" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="JK17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="JL17" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="JM17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="JN17" t="n">
+        <v>27</v>
+      </c>
+      <c r="JO17" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="JP17" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="JQ17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JS17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="JT17" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="JU17" t="n">
+        <v>30</v>
+      </c>
+      <c r="JV17" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="JW17" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="JX17" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="JY17" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="JZ17" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="KA17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="KB17" t="n">
+        <v>27</v>
+      </c>
+      <c r="KC17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="KD17" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="KE17" t="n">
+        <v>28</v>
+      </c>
+      <c r="KF17" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="KG17" t="n">
+        <v>28</v>
+      </c>
+      <c r="KH17" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="KI17" t="n">
+        <v>28</v>
+      </c>
+      <c r="KJ17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="KK17" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="KL17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="KM17" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="KN17" t="n">
+        <v>29</v>
+      </c>
       <c r="KO17" t="inlineStr"/>
-      <c r="KP17" t="inlineStr"/>
-      <c r="KQ17" t="inlineStr"/>
-      <c r="KR17" t="inlineStr"/>
-      <c r="KS17" t="inlineStr"/>
-      <c r="KT17" t="inlineStr"/>
-      <c r="KU17" t="inlineStr"/>
+      <c r="KP17" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="KQ17" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="KR17" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="KT17" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="KU17" t="n">
+        <v>29.1</v>
+      </c>
       <c r="KV17" t="n">
         <v>27.7</v>
       </c>
       <c r="KW17" t="n">
         <v>27.8</v>
       </c>
-      <c r="KX17" t="inlineStr"/>
+      <c r="KX17" t="n">
+        <v>28.8</v>
+      </c>
       <c r="KY17" t="n">
         <v>28.6</v>
       </c>
@@ -18426,7 +19982,9 @@
       <c r="LP17" t="n">
         <v>27</v>
       </c>
-      <c r="LQ17" t="inlineStr"/>
+      <c r="LQ17" t="n">
+        <v>28.8</v>
+      </c>
       <c r="LR17" t="n">
         <v>26.1</v>
       </c>
@@ -18436,47 +19994,105 @@
       <c r="LT17" t="n">
         <v>27.4</v>
       </c>
-      <c r="LU17" t="inlineStr"/>
-      <c r="LV17" t="inlineStr"/>
-      <c r="LW17" t="inlineStr"/>
-      <c r="LX17" t="inlineStr"/>
-      <c r="LY17" t="inlineStr"/>
-      <c r="LZ17" t="inlineStr"/>
+      <c r="LU17" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="LV17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="LW17" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="LX17" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="LY17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="LZ17" t="n">
+        <v>28.2</v>
+      </c>
       <c r="MA17" t="n">
         <v>28</v>
       </c>
       <c r="MB17" t="n">
         <v>27.4</v>
       </c>
-      <c r="MC17" t="inlineStr"/>
+      <c r="MC17" t="n">
+        <v>28.1</v>
+      </c>
       <c r="MD17" t="n">
         <v>30.3</v>
       </c>
       <c r="ME17" t="n">
         <v>26.1</v>
       </c>
-      <c r="MF17" t="inlineStr"/>
-      <c r="MG17" t="inlineStr"/>
-      <c r="MH17" t="inlineStr"/>
-      <c r="MI17" t="inlineStr"/>
-      <c r="MJ17" t="inlineStr"/>
-      <c r="MK17" t="inlineStr"/>
-      <c r="ML17" t="inlineStr"/>
-      <c r="MM17" t="inlineStr"/>
-      <c r="MN17" t="inlineStr"/>
-      <c r="MO17" t="inlineStr"/>
-      <c r="MP17" t="inlineStr"/>
-      <c r="MQ17" t="inlineStr"/>
-      <c r="MR17" t="inlineStr"/>
-      <c r="MS17" t="inlineStr"/>
-      <c r="MT17" t="inlineStr"/>
-      <c r="MU17" t="inlineStr"/>
-      <c r="MV17" t="inlineStr"/>
-      <c r="MW17" t="inlineStr"/>
-      <c r="MX17" t="inlineStr"/>
-      <c r="MY17" t="inlineStr"/>
-      <c r="MZ17" t="inlineStr"/>
-      <c r="NA17" t="inlineStr"/>
+      <c r="MF17" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="MG17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="MH17" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="MI17" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="MJ17" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="MK17" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="ML17" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="MM17" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="MN17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="MO17" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="MP17" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="MQ17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="MR17" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="MS17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="MT17" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="MU17" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="MV17" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="MW17" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="MX17" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="MY17" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="MZ17" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="NA17" t="n">
+        <v>28.4</v>
+      </c>
       <c r="NB17" t="n">
         <v>28.9</v>
       </c>
@@ -18678,7 +20294,9 @@
       <c r="BH18" t="n">
         <v>27</v>
       </c>
-      <c r="BI18" t="inlineStr"/>
+      <c r="BI18" t="n">
+        <v>27.3</v>
+      </c>
       <c r="BJ18" t="n">
         <v>26</v>
       </c>
@@ -19808,7 +21426,9 @@
       <c r="BN19" t="n">
         <v>26.4</v>
       </c>
-      <c r="BO19" t="inlineStr"/>
+      <c r="BO19" t="n">
+        <v>29.2</v>
+      </c>
       <c r="BP19" t="n">
         <v>24.8</v>
       </c>
@@ -19947,7 +21567,9 @@
       <c r="DI19" t="n">
         <v>27.5</v>
       </c>
-      <c r="DJ19" t="inlineStr"/>
+      <c r="DJ19" t="n">
+        <v>29.6</v>
+      </c>
       <c r="DK19" t="n">
         <v>27.9</v>
       </c>
@@ -20017,7 +21639,9 @@
       <c r="EG19" t="n">
         <v>28.3</v>
       </c>
-      <c r="EH19" t="inlineStr"/>
+      <c r="EH19" t="n">
+        <v>27.7</v>
+      </c>
       <c r="EI19" t="n">
         <v>26.3</v>
       </c>
@@ -20168,7 +21792,9 @@
       <c r="GF19" t="n">
         <v>25.8</v>
       </c>
-      <c r="GG19" t="inlineStr"/>
+      <c r="GG19" t="n">
+        <v>25.6</v>
+      </c>
       <c r="GH19" t="n">
         <v>26.9</v>
       </c>
@@ -21848,41 +23474,69 @@
       <c r="F21" t="n">
         <v>28.3</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>27.1</v>
+      </c>
       <c r="I21" t="n">
         <v>27.8</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>27</v>
+      </c>
       <c r="M21" t="n">
         <v>26.1</v>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>26.8</v>
+      </c>
       <c r="O21" t="n">
         <v>26.3</v>
       </c>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>27.3</v>
+      </c>
       <c r="Q21" t="n">
         <v>26.2</v>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>27.4</v>
+      </c>
       <c r="U21" t="n">
         <v>25.9</v>
       </c>
-      <c r="V21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>27.7</v>
+      </c>
       <c r="W21" t="n">
         <v>25.7</v>
       </c>
-      <c r="X21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>26.9</v>
+      </c>
       <c r="Y21" t="n">
         <v>25.8</v>
       </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+      <c r="Z21" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>26.7</v>
+      </c>
       <c r="AB21" t="n">
         <v>24.2</v>
       </c>
@@ -21913,7 +23567,9 @@
       <c r="AK21" t="n">
         <v>26.9</v>
       </c>
-      <c r="AL21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>26.1</v>
+      </c>
       <c r="AM21" t="n">
         <v>25.2</v>
       </c>
@@ -21929,11 +23585,15 @@
       <c r="AQ21" t="n">
         <v>26.2</v>
       </c>
-      <c r="AR21" t="inlineStr"/>
+      <c r="AR21" t="n">
+        <v>28.2</v>
+      </c>
       <c r="AS21" t="n">
         <v>26.3</v>
       </c>
-      <c r="AT21" t="inlineStr"/>
+      <c r="AT21" t="n">
+        <v>28.4</v>
+      </c>
       <c r="AU21" t="n">
         <v>28.1</v>
       </c>
@@ -21988,53 +23648,93 @@
       <c r="BL21" t="n">
         <v>25.4</v>
       </c>
-      <c r="BM21" t="inlineStr"/>
-      <c r="BN21" t="inlineStr"/>
+      <c r="BM21" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>26.8</v>
+      </c>
       <c r="BO21" t="n">
         <v>27.2</v>
       </c>
-      <c r="BP21" t="inlineStr"/>
+      <c r="BP21" t="n">
+        <v>25.9</v>
+      </c>
       <c r="BQ21" t="n">
         <v>26.5</v>
       </c>
-      <c r="BR21" t="inlineStr"/>
+      <c r="BR21" t="n">
+        <v>26.4</v>
+      </c>
       <c r="BS21" t="n">
         <v>25.9</v>
       </c>
-      <c r="BT21" t="inlineStr"/>
+      <c r="BT21" t="n">
+        <v>27.2</v>
+      </c>
       <c r="BU21" t="n">
         <v>26.8</v>
       </c>
-      <c r="BV21" t="inlineStr"/>
-      <c r="BW21" t="inlineStr"/>
+      <c r="BV21" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>26.6</v>
+      </c>
       <c r="BX21" t="n">
         <v>26.1</v>
       </c>
       <c r="BY21" t="n">
         <v>25.6</v>
       </c>
-      <c r="BZ21" t="inlineStr"/>
-      <c r="CA21" t="inlineStr"/>
-      <c r="CB21" t="inlineStr"/>
-      <c r="CC21" t="inlineStr"/>
+      <c r="BZ21" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>27.6</v>
+      </c>
       <c r="CD21" t="n">
         <v>26.8</v>
       </c>
       <c r="CE21" t="n">
         <v>27.8</v>
       </c>
-      <c r="CF21" t="inlineStr"/>
-      <c r="CG21" t="inlineStr"/>
-      <c r="CH21" t="inlineStr"/>
-      <c r="CI21" t="inlineStr"/>
-      <c r="CJ21" t="inlineStr"/>
-      <c r="CK21" t="inlineStr"/>
-      <c r="CL21" t="inlineStr"/>
-      <c r="CM21" t="inlineStr"/>
+      <c r="CF21" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>27.8</v>
+      </c>
       <c r="CN21" t="n">
         <v>26.9</v>
       </c>
-      <c r="CO21" t="inlineStr"/>
+      <c r="CO21" t="n">
+        <v>28</v>
+      </c>
       <c r="CP21" t="n">
         <v>26.1</v>
       </c>
@@ -22044,42 +23744,78 @@
       <c r="CR21" t="n">
         <v>25.7</v>
       </c>
-      <c r="CS21" t="inlineStr"/>
-      <c r="CT21" t="inlineStr"/>
-      <c r="CU21" t="inlineStr"/>
-      <c r="CV21" t="inlineStr"/>
-      <c r="CW21" t="inlineStr"/>
+      <c r="CS21" t="n">
+        <v>28</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="CW21" t="n">
+        <v>26</v>
+      </c>
       <c r="CX21" t="n">
         <v>27</v>
       </c>
-      <c r="CY21" t="inlineStr"/>
-      <c r="CZ21" t="inlineStr"/>
-      <c r="DA21" t="inlineStr"/>
-      <c r="DB21" t="inlineStr"/>
-      <c r="DC21" t="inlineStr"/>
+      <c r="CY21" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>28.7</v>
+      </c>
       <c r="DD21" t="n">
         <v>28.1</v>
       </c>
-      <c r="DE21" t="inlineStr"/>
-      <c r="DF21" t="inlineStr"/>
+      <c r="DE21" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>29.6</v>
+      </c>
       <c r="DG21" t="n">
         <v>27.2</v>
       </c>
-      <c r="DH21" t="inlineStr"/>
-      <c r="DI21" t="inlineStr"/>
+      <c r="DH21" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>28.4</v>
+      </c>
       <c r="DJ21" t="n">
         <v>27.5</v>
       </c>
-      <c r="DK21" t="inlineStr"/>
-      <c r="DL21" t="inlineStr"/>
-      <c r="DM21" t="inlineStr"/>
+      <c r="DK21" t="n">
+        <v>29</v>
+      </c>
+      <c r="DL21" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="DM21" t="n">
+        <v>27.9</v>
+      </c>
       <c r="DN21" t="n">
         <v>26.7</v>
       </c>
       <c r="DO21" t="n">
         <v>27.1</v>
       </c>
-      <c r="DP21" t="inlineStr"/>
+      <c r="DP21" t="n">
+        <v>28.7</v>
+      </c>
       <c r="DQ21" t="n">
         <v>27.7</v>
       </c>
@@ -22095,7 +23831,9 @@
       <c r="DU21" t="n">
         <v>26.3</v>
       </c>
-      <c r="DV21" t="inlineStr"/>
+      <c r="DV21" t="n">
+        <v>27.5</v>
+      </c>
       <c r="DW21" t="n">
         <v>28.1</v>
       </c>
@@ -22117,7 +23855,9 @@
       <c r="EC21" t="n">
         <v>26.1</v>
       </c>
-      <c r="ED21" t="inlineStr"/>
+      <c r="ED21" t="n">
+        <v>27</v>
+      </c>
       <c r="EE21" t="n">
         <v>26.9</v>
       </c>
@@ -22133,7 +23873,9 @@
       <c r="EI21" t="n">
         <v>28</v>
       </c>
-      <c r="EJ21" t="inlineStr"/>
+      <c r="EJ21" t="n">
+        <v>29.9</v>
+      </c>
       <c r="EK21" t="n">
         <v>27.3</v>
       </c>
@@ -22188,7 +23930,9 @@
       <c r="FB21" t="n">
         <v>27.6</v>
       </c>
-      <c r="FC21" t="inlineStr"/>
+      <c r="FC21" t="n">
+        <v>27.2</v>
+      </c>
       <c r="FD21" t="n">
         <v>26.7</v>
       </c>
@@ -22204,25 +23948,39 @@
       <c r="FH21" t="n">
         <v>27.3</v>
       </c>
-      <c r="FI21" t="inlineStr"/>
+      <c r="FI21" t="n">
+        <v>28.2</v>
+      </c>
       <c r="FJ21" t="n">
         <v>26.3</v>
       </c>
       <c r="FK21" t="n">
         <v>27.7</v>
       </c>
-      <c r="FL21" t="inlineStr"/>
-      <c r="FM21" t="inlineStr"/>
+      <c r="FL21" t="n">
+        <v>28</v>
+      </c>
+      <c r="FM21" t="n">
+        <v>29.5</v>
+      </c>
       <c r="FN21" t="n">
         <v>24.9</v>
       </c>
       <c r="FO21" t="n">
         <v>25.3</v>
       </c>
-      <c r="FP21" t="inlineStr"/>
-      <c r="FQ21" t="inlineStr"/>
-      <c r="FR21" t="inlineStr"/>
-      <c r="FS21" t="inlineStr"/>
+      <c r="FP21" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="FQ21" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="FR21" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="FS21" t="n">
+        <v>28.9</v>
+      </c>
       <c r="FT21" t="n">
         <v>25.1</v>
       </c>
@@ -22235,19 +23993,27 @@
       <c r="FW21" t="n">
         <v>25.8</v>
       </c>
-      <c r="FX21" t="inlineStr"/>
-      <c r="FY21" t="inlineStr"/>
+      <c r="FX21" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="FY21" t="n">
+        <v>28.8</v>
+      </c>
       <c r="FZ21" t="n">
         <v>27.3</v>
       </c>
       <c r="GA21" t="n">
         <v>26.9</v>
       </c>
-      <c r="GB21" t="inlineStr"/>
+      <c r="GB21" t="n">
+        <v>28.8</v>
+      </c>
       <c r="GC21" t="n">
         <v>27.2</v>
       </c>
-      <c r="GD21" t="inlineStr"/>
+      <c r="GD21" t="n">
+        <v>28.7</v>
+      </c>
       <c r="GE21" t="n">
         <v>27.5</v>
       </c>
@@ -22269,14 +24035,18 @@
       <c r="GK21" t="n">
         <v>27</v>
       </c>
-      <c r="GL21" t="inlineStr"/>
+      <c r="GL21" t="n">
+        <v>28.7</v>
+      </c>
       <c r="GM21" t="n">
         <v>27.4</v>
       </c>
       <c r="GN21" t="n">
         <v>27.5</v>
       </c>
-      <c r="GO21" t="inlineStr"/>
+      <c r="GO21" t="n">
+        <v>27</v>
+      </c>
       <c r="GP21" t="n">
         <v>25.3</v>
       </c>
@@ -22292,7 +24062,9 @@
       <c r="GT21" t="n">
         <v>26.4</v>
       </c>
-      <c r="GU21" t="inlineStr"/>
+      <c r="GU21" t="n">
+        <v>30</v>
+      </c>
       <c r="GV21" t="n">
         <v>27.5</v>
       </c>
@@ -22305,7 +24077,9 @@
       <c r="GY21" t="n">
         <v>27.6</v>
       </c>
-      <c r="GZ21" t="inlineStr"/>
+      <c r="GZ21" t="n">
+        <v>28.9</v>
+      </c>
       <c r="HA21" t="n">
         <v>26.7</v>
       </c>
@@ -22318,7 +24092,9 @@
       <c r="HD21" t="n">
         <v>26.8</v>
       </c>
-      <c r="HE21" t="inlineStr"/>
+      <c r="HE21" t="n">
+        <v>29.8</v>
+      </c>
       <c r="HF21" t="n">
         <v>26.5</v>
       </c>
@@ -22337,26 +24113,36 @@
       <c r="HK21" t="n">
         <v>27.6</v>
       </c>
-      <c r="HL21" t="inlineStr"/>
+      <c r="HL21" t="n">
+        <v>27.1</v>
+      </c>
       <c r="HM21" t="n">
         <v>27.1</v>
       </c>
-      <c r="HN21" t="inlineStr"/>
+      <c r="HN21" t="n">
+        <v>29.9</v>
+      </c>
       <c r="HO21" t="n">
         <v>28.3</v>
       </c>
-      <c r="HP21" t="inlineStr"/>
+      <c r="HP21" t="n">
+        <v>27.3</v>
+      </c>
       <c r="HQ21" t="n">
         <v>26.8</v>
       </c>
-      <c r="HR21" t="inlineStr"/>
+      <c r="HR21" t="n">
+        <v>28.7</v>
+      </c>
       <c r="HS21" t="n">
         <v>26.1</v>
       </c>
       <c r="HT21" t="n">
         <v>26.2</v>
       </c>
-      <c r="HU21" t="inlineStr"/>
+      <c r="HU21" t="n">
+        <v>28.5</v>
+      </c>
       <c r="HV21" t="n">
         <v>26.1</v>
       </c>
@@ -22366,12 +24152,18 @@
       <c r="HX21" t="n">
         <v>26.5</v>
       </c>
-      <c r="HY21" t="inlineStr"/>
+      <c r="HY21" t="n">
+        <v>29.8</v>
+      </c>
       <c r="HZ21" t="n">
         <v>26.4</v>
       </c>
-      <c r="IA21" t="inlineStr"/>
-      <c r="IB21" t="inlineStr"/>
+      <c r="IA21" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="IB21" t="n">
+        <v>28.9</v>
+      </c>
       <c r="IC21" t="n">
         <v>27</v>
       </c>
@@ -22393,7 +24185,9 @@
       <c r="II21" t="n">
         <v>26.9</v>
       </c>
-      <c r="IJ21" t="inlineStr"/>
+      <c r="IJ21" t="n">
+        <v>28.2</v>
+      </c>
       <c r="IK21" t="n">
         <v>26.8</v>
       </c>
@@ -22406,32 +24200,60 @@
       <c r="IN21" t="n">
         <v>26.7</v>
       </c>
-      <c r="IO21" t="inlineStr"/>
+      <c r="IO21" t="n">
+        <v>29.5</v>
+      </c>
       <c r="IP21" t="n">
         <v>25.7</v>
       </c>
-      <c r="IQ21" t="inlineStr"/>
-      <c r="IR21" t="inlineStr"/>
+      <c r="IQ21" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="IR21" t="n">
+        <v>29</v>
+      </c>
       <c r="IS21" t="n">
         <v>27.1</v>
       </c>
-      <c r="IT21" t="inlineStr"/>
-      <c r="IU21" t="inlineStr"/>
-      <c r="IV21" t="inlineStr"/>
-      <c r="IW21" t="inlineStr"/>
-      <c r="IX21" t="inlineStr"/>
-      <c r="IY21" t="inlineStr"/>
-      <c r="IZ21" t="inlineStr"/>
-      <c r="JA21" t="inlineStr"/>
+      <c r="IT21" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="IU21" t="n">
+        <v>27</v>
+      </c>
+      <c r="IV21" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="IW21" t="n">
+        <v>30</v>
+      </c>
+      <c r="IX21" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="IY21" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="IZ21" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JA21" t="n">
+        <v>28.2</v>
+      </c>
       <c r="JB21" t="n">
         <v>27.6</v>
       </c>
-      <c r="JC21" t="inlineStr"/>
-      <c r="JD21" t="inlineStr"/>
+      <c r="JC21" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="JD21" t="n">
+        <v>26</v>
+      </c>
       <c r="JE21" t="n">
         <v>26.9</v>
       </c>
-      <c r="JF21" t="inlineStr"/>
+      <c r="JF21" t="n">
+        <v>26.3</v>
+      </c>
       <c r="JG21" t="n">
         <v>26.1</v>
       </c>
@@ -22483,7 +24305,9 @@
       <c r="JW21" t="n">
         <v>28.2</v>
       </c>
-      <c r="JX21" t="inlineStr"/>
+      <c r="JX21" t="n">
+        <v>29</v>
+      </c>
       <c r="JY21" t="n">
         <v>28.5</v>
       </c>
@@ -22493,7 +24317,9 @@
       <c r="KA21" t="n">
         <v>30.4</v>
       </c>
-      <c r="KB21" t="inlineStr"/>
+      <c r="KB21" t="n">
+        <v>27.7</v>
+      </c>
       <c r="KC21" t="n">
         <v>29</v>
       </c>
@@ -22521,7 +24347,9 @@
       <c r="KK21" t="n">
         <v>27.9</v>
       </c>
-      <c r="KL21" t="inlineStr"/>
+      <c r="KL21" t="n">
+        <v>27.7</v>
+      </c>
       <c r="KM21" t="n">
         <v>28.8</v>
       </c>
@@ -22580,7 +24408,9 @@
       <c r="LF21" t="n">
         <v>29.7</v>
       </c>
-      <c r="LG21" t="inlineStr"/>
+      <c r="LG21" t="n">
+        <v>26.2</v>
+      </c>
       <c r="LH21" t="n">
         <v>28.3</v>
       </c>
@@ -22590,7 +24420,9 @@
       <c r="LJ21" t="n">
         <v>28.9</v>
       </c>
-      <c r="LK21" t="inlineStr"/>
+      <c r="LK21" t="n">
+        <v>29.5</v>
+      </c>
       <c r="LL21" t="n">
         <v>29.4</v>
       </c>
@@ -22759,119 +24591,267 @@
       <c r="G22" t="n">
         <v>28.4</v>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>27</v>
+      </c>
+      <c r="M22" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>26.8</v>
+      </c>
       <c r="O22" t="n">
         <v>26.4</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="U22" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="V22" t="n">
+        <v>27.7</v>
+      </c>
       <c r="W22" t="n">
         <v>25.7</v>
       </c>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>26.8</v>
+      </c>
       <c r="AA22" t="n">
         <v>25.9</v>
       </c>
       <c r="AB22" t="n">
         <v>26</v>
       </c>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
+      <c r="AC22" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>26.8</v>
+      </c>
       <c r="AH22" t="n">
         <v>25.9</v>
       </c>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
+      <c r="AI22" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>25.2</v>
+      </c>
       <c r="AN22" t="n">
         <v>27</v>
       </c>
-      <c r="AO22" t="inlineStr"/>
+      <c r="AO22" t="n">
+        <v>27.6</v>
+      </c>
       <c r="AP22" t="n">
         <v>26.4</v>
       </c>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr"/>
-      <c r="AW22" t="inlineStr"/>
+      <c r="AQ22" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>26.6</v>
+      </c>
       <c r="AX22" t="n">
         <v>26.3</v>
       </c>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="inlineStr"/>
-      <c r="BE22" t="inlineStr"/>
+      <c r="AY22" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>26.9</v>
+      </c>
       <c r="BF22" t="n">
         <v>26.1</v>
       </c>
-      <c r="BG22" t="inlineStr"/>
-      <c r="BH22" t="inlineStr"/>
-      <c r="BI22" t="inlineStr"/>
-      <c r="BJ22" t="inlineStr"/>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="inlineStr"/>
-      <c r="BM22" t="inlineStr"/>
-      <c r="BN22" t="inlineStr"/>
-      <c r="BO22" t="inlineStr"/>
+      <c r="BG22" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>26</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>27.2</v>
+      </c>
       <c r="BP22" t="n">
         <v>27.1</v>
       </c>
-      <c r="BQ22" t="inlineStr"/>
-      <c r="BR22" t="inlineStr"/>
-      <c r="BS22" t="inlineStr"/>
-      <c r="BT22" t="inlineStr"/>
-      <c r="BU22" t="inlineStr"/>
-      <c r="BV22" t="inlineStr"/>
-      <c r="BW22" t="inlineStr"/>
-      <c r="BX22" t="inlineStr"/>
+      <c r="BQ22" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>26.1</v>
+      </c>
       <c r="BY22" t="n">
         <v>26.1</v>
       </c>
-      <c r="BZ22" t="inlineStr"/>
-      <c r="CA22" t="inlineStr"/>
-      <c r="CB22" t="inlineStr"/>
-      <c r="CC22" t="inlineStr"/>
-      <c r="CD22" t="inlineStr"/>
+      <c r="BZ22" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>26.8</v>
+      </c>
       <c r="CE22" t="n">
         <v>28.3</v>
       </c>
-      <c r="CF22" t="inlineStr"/>
-      <c r="CG22" t="inlineStr"/>
-      <c r="CH22" t="inlineStr"/>
-      <c r="CI22" t="inlineStr"/>
-      <c r="CJ22" t="inlineStr"/>
-      <c r="CK22" t="inlineStr"/>
-      <c r="CL22" t="inlineStr"/>
-      <c r="CM22" t="inlineStr"/>
-      <c r="CN22" t="inlineStr"/>
+      <c r="CF22" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>26.9</v>
+      </c>
       <c r="CO22" t="n">
         <v>27.4</v>
       </c>
-      <c r="CP22" t="inlineStr"/>
+      <c r="CP22" t="n">
+        <v>26.1</v>
+      </c>
       <c r="CQ22" t="n">
         <v>25.8</v>
       </c>
@@ -22881,12 +24861,24 @@
       <c r="CS22" t="n">
         <v>25.9</v>
       </c>
-      <c r="CT22" t="inlineStr"/>
-      <c r="CU22" t="inlineStr"/>
-      <c r="CV22" t="inlineStr"/>
-      <c r="CW22" t="inlineStr"/>
-      <c r="CX22" t="inlineStr"/>
-      <c r="CY22" t="inlineStr"/>
+      <c r="CT22" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>26</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>27</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>27.1</v>
+      </c>
       <c r="CZ22" t="n">
         <v>27.1</v>
       </c>
@@ -22896,28 +24888,42 @@
       <c r="DB22" t="n">
         <v>28.1</v>
       </c>
-      <c r="DC22" t="inlineStr"/>
-      <c r="DD22" t="inlineStr"/>
+      <c r="DC22" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>28.1</v>
+      </c>
       <c r="DE22" t="n">
         <v>27.9</v>
       </c>
       <c r="DF22" t="n">
         <v>28.1</v>
       </c>
-      <c r="DG22" t="inlineStr"/>
+      <c r="DG22" t="n">
+        <v>27.2</v>
+      </c>
       <c r="DH22" t="n">
         <v>26.7</v>
       </c>
       <c r="DI22" t="n">
         <v>28</v>
       </c>
-      <c r="DJ22" t="inlineStr"/>
-      <c r="DK22" t="inlineStr"/>
+      <c r="DJ22" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="DK22" t="n">
+        <v>29</v>
+      </c>
       <c r="DL22" t="n">
         <v>27.8</v>
       </c>
-      <c r="DM22" t="inlineStr"/>
-      <c r="DN22" t="inlineStr"/>
+      <c r="DM22" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="DN22" t="n">
+        <v>26.7</v>
+      </c>
       <c r="DO22" t="n">
         <v>28.8</v>
       </c>
@@ -22930,13 +24936,21 @@
       <c r="DR22" t="n">
         <v>27.8</v>
       </c>
-      <c r="DS22" t="inlineStr"/>
-      <c r="DT22" t="inlineStr"/>
+      <c r="DS22" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="DT22" t="n">
+        <v>26.8</v>
+      </c>
       <c r="DU22" t="n">
         <v>27.9</v>
       </c>
-      <c r="DV22" t="inlineStr"/>
-      <c r="DW22" t="inlineStr"/>
+      <c r="DV22" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="DW22" t="n">
+        <v>28.1</v>
+      </c>
       <c r="DX22" t="n">
         <v>27.5</v>
       </c>
@@ -22955,8 +24969,12 @@
       <c r="EC22" t="n">
         <v>27.5</v>
       </c>
-      <c r="ED22" t="inlineStr"/>
-      <c r="EE22" t="inlineStr"/>
+      <c r="ED22" t="n">
+        <v>27</v>
+      </c>
+      <c r="EE22" t="n">
+        <v>26.9</v>
+      </c>
       <c r="EF22" t="n">
         <v>29.2</v>
       </c>
@@ -22972,7 +24990,9 @@
       <c r="EJ22" t="n">
         <v>28.5</v>
       </c>
-      <c r="EK22" t="inlineStr"/>
+      <c r="EK22" t="n">
+        <v>27.3</v>
+      </c>
       <c r="EL22" t="n">
         <v>27.6</v>
       </c>
@@ -23027,7 +25047,9 @@
       <c r="FC22" t="n">
         <v>30.3</v>
       </c>
-      <c r="FD22" t="inlineStr"/>
+      <c r="FD22" t="n">
+        <v>26.7</v>
+      </c>
       <c r="FE22" t="n">
         <v>24.4</v>
       </c>
@@ -23049,15 +25071,21 @@
       <c r="FK22" t="n">
         <v>27.1</v>
       </c>
-      <c r="FL22" t="inlineStr"/>
-      <c r="FM22" t="inlineStr"/>
+      <c r="FL22" t="n">
+        <v>28</v>
+      </c>
+      <c r="FM22" t="n">
+        <v>29.5</v>
+      </c>
       <c r="FN22" t="n">
         <v>28</v>
       </c>
       <c r="FO22" t="n">
         <v>26.8</v>
       </c>
-      <c r="FP22" t="inlineStr"/>
+      <c r="FP22" t="n">
+        <v>27.7</v>
+      </c>
       <c r="FQ22" t="n">
         <v>28.1</v>
       </c>
@@ -23085,31 +25113,51 @@
       <c r="FY22" t="n">
         <v>27.5</v>
       </c>
-      <c r="FZ22" t="inlineStr"/>
+      <c r="FZ22" t="n">
+        <v>27.3</v>
+      </c>
       <c r="GA22" t="n">
         <v>28</v>
       </c>
       <c r="GB22" t="n">
         <v>26.8</v>
       </c>
-      <c r="GC22" t="inlineStr"/>
-      <c r="GD22" t="inlineStr"/>
-      <c r="GE22" t="inlineStr"/>
-      <c r="GF22" t="inlineStr"/>
+      <c r="GC22" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="GD22" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="GE22" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="GF22" t="n">
+        <v>27.2</v>
+      </c>
       <c r="GG22" t="n">
         <v>25.3</v>
       </c>
-      <c r="GH22" t="inlineStr"/>
-      <c r="GI22" t="inlineStr"/>
+      <c r="GH22" t="n">
+        <v>27</v>
+      </c>
+      <c r="GI22" t="n">
+        <v>27.2</v>
+      </c>
       <c r="GJ22" t="n">
         <v>27.4</v>
       </c>
-      <c r="GK22" t="inlineStr"/>
-      <c r="GL22" t="inlineStr"/>
+      <c r="GK22" t="n">
+        <v>27</v>
+      </c>
+      <c r="GL22" t="n">
+        <v>28.7</v>
+      </c>
       <c r="GM22" t="n">
         <v>26.3</v>
       </c>
-      <c r="GN22" t="inlineStr"/>
+      <c r="GN22" t="n">
+        <v>27.5</v>
+      </c>
       <c r="GO22" t="n">
         <v>26.8</v>
       </c>
@@ -23122,7 +25170,9 @@
       <c r="GR22" t="n">
         <v>26.8</v>
       </c>
-      <c r="GS22" t="inlineStr"/>
+      <c r="GS22" t="n">
+        <v>27.5</v>
+      </c>
       <c r="GT22" t="n">
         <v>26.2</v>
       </c>
@@ -23132,7 +25182,9 @@
       <c r="GV22" t="n">
         <v>27.5</v>
       </c>
-      <c r="GW22" t="inlineStr"/>
+      <c r="GW22" t="n">
+        <v>27.6</v>
+      </c>
       <c r="GX22" t="n">
         <v>27.2</v>
       </c>
@@ -23175,17 +25227,27 @@
       <c r="HK22" t="n">
         <v>28.4</v>
       </c>
-      <c r="HL22" t="inlineStr"/>
-      <c r="HM22" t="inlineStr"/>
+      <c r="HL22" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="HM22" t="n">
+        <v>27.1</v>
+      </c>
       <c r="HN22" t="n">
         <v>27.5</v>
       </c>
       <c r="HO22" t="n">
         <v>27.6</v>
       </c>
-      <c r="HP22" t="inlineStr"/>
-      <c r="HQ22" t="inlineStr"/>
-      <c r="HR22" t="inlineStr"/>
+      <c r="HP22" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HQ22" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HR22" t="n">
+        <v>28.7</v>
+      </c>
       <c r="HS22" t="n">
         <v>25.7</v>
       </c>
@@ -23195,7 +25257,9 @@
       <c r="HU22" t="n">
         <v>25.4</v>
       </c>
-      <c r="HV22" t="inlineStr"/>
+      <c r="HV22" t="n">
+        <v>26.1</v>
+      </c>
       <c r="HW22" t="n">
         <v>26.8</v>
       </c>
@@ -23211,44 +25275,60 @@
       <c r="IA22" t="n">
         <v>27</v>
       </c>
-      <c r="IB22" t="inlineStr"/>
-      <c r="IC22" t="inlineStr"/>
+      <c r="IB22" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="IC22" t="n">
+        <v>27</v>
+      </c>
       <c r="ID22" t="n">
         <v>26.5</v>
       </c>
       <c r="IE22" t="n">
         <v>27.3</v>
       </c>
-      <c r="IF22" t="inlineStr"/>
+      <c r="IF22" t="n">
+        <v>26.6</v>
+      </c>
       <c r="IG22" t="n">
         <v>28.1</v>
       </c>
       <c r="IH22" t="n">
         <v>28</v>
       </c>
-      <c r="II22" t="inlineStr"/>
+      <c r="II22" t="n">
+        <v>26.9</v>
+      </c>
       <c r="IJ22" t="n">
         <v>27.4</v>
       </c>
       <c r="IK22" t="n">
         <v>27.1</v>
       </c>
-      <c r="IL22" t="inlineStr"/>
-      <c r="IM22" t="inlineStr"/>
+      <c r="IL22" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="IM22" t="n">
+        <v>26.7</v>
+      </c>
       <c r="IN22" t="n">
         <v>27.5</v>
       </c>
       <c r="IO22" t="n">
         <v>27</v>
       </c>
-      <c r="IP22" t="inlineStr"/>
+      <c r="IP22" t="n">
+        <v>25.7</v>
+      </c>
       <c r="IQ22" t="n">
         <v>26.2</v>
       </c>
       <c r="IR22" t="n">
         <v>26.6</v>
       </c>
-      <c r="IS22" t="inlineStr"/>
+      <c r="IS22" t="n">
+        <v>27.1</v>
+      </c>
       <c r="IT22" t="n">
         <v>27.5</v>
       </c>
@@ -23258,8 +25338,12 @@
       <c r="IV22" t="n">
         <v>27.5</v>
       </c>
-      <c r="IW22" t="inlineStr"/>
-      <c r="IX22" t="inlineStr"/>
+      <c r="IW22" t="n">
+        <v>30</v>
+      </c>
+      <c r="IX22" t="n">
+        <v>29.9</v>
+      </c>
       <c r="IY22" t="n">
         <v>26.9</v>
       </c>
@@ -23278,8 +25362,12 @@
       <c r="JD22" t="n">
         <v>27.2</v>
       </c>
-      <c r="JE22" t="inlineStr"/>
-      <c r="JF22" t="inlineStr"/>
+      <c r="JE22" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="JF22" t="n">
+        <v>26.3</v>
+      </c>
       <c r="JG22" t="n">
         <v>28.3</v>
       </c>
@@ -23292,7 +25380,9 @@
       <c r="JJ22" t="n">
         <v>26.8</v>
       </c>
-      <c r="JK22" t="inlineStr"/>
+      <c r="JK22" t="n">
+        <v>27</v>
+      </c>
       <c r="JL22" t="n">
         <v>28.4</v>
       </c>
@@ -23305,7 +25395,9 @@
       <c r="JO22" t="n">
         <v>28.1</v>
       </c>
-      <c r="JP22" t="inlineStr"/>
+      <c r="JP22" t="n">
+        <v>27.7</v>
+      </c>
       <c r="JQ22" t="n">
         <v>28.4</v>
       </c>
@@ -23318,7 +25410,9 @@
       <c r="JT22" t="n">
         <v>28</v>
       </c>
-      <c r="JU22" t="inlineStr"/>
+      <c r="JU22" t="n">
+        <v>28.6</v>
+      </c>
       <c r="JV22" t="n">
         <v>28.4</v>
       </c>
@@ -23328,7 +25422,9 @@
       <c r="JX22" t="n">
         <v>29.3</v>
       </c>
-      <c r="JY22" t="inlineStr"/>
+      <c r="JY22" t="n">
+        <v>28.5</v>
+      </c>
       <c r="JZ22" t="n">
         <v>28.5</v>
       </c>
@@ -23359,11 +25455,15 @@
       <c r="KI22" t="n">
         <v>28.7</v>
       </c>
-      <c r="KJ22" t="inlineStr"/>
+      <c r="KJ22" t="n">
+        <v>27.8</v>
+      </c>
       <c r="KK22" t="n">
         <v>26.9</v>
       </c>
-      <c r="KL22" t="inlineStr"/>
+      <c r="KL22" t="n">
+        <v>27.7</v>
+      </c>
       <c r="KM22" t="n">
         <v>27.8</v>
       </c>
@@ -23494,14 +25594,18 @@
       <c r="MD22" t="n">
         <v>26.3</v>
       </c>
-      <c r="ME22" t="inlineStr"/>
+      <c r="ME22" t="n">
+        <v>28.1</v>
+      </c>
       <c r="MF22" t="n">
         <v>28.1</v>
       </c>
       <c r="MG22" t="n">
         <v>28.3</v>
       </c>
-      <c r="MH22" t="inlineStr"/>
+      <c r="MH22" t="n">
+        <v>26.3</v>
+      </c>
       <c r="MI22" t="n">
         <v>28.1</v>
       </c>
@@ -23595,162 +25699,450 @@
       <c r="E23" t="n">
         <v>55</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
-      <c r="AV23" t="inlineStr"/>
-      <c r="AW23" t="inlineStr"/>
-      <c r="AX23" t="inlineStr"/>
-      <c r="AY23" t="inlineStr"/>
-      <c r="AZ23" t="inlineStr"/>
-      <c r="BA23" t="inlineStr"/>
-      <c r="BB23" t="inlineStr"/>
-      <c r="BC23" t="inlineStr"/>
-      <c r="BD23" t="inlineStr"/>
-      <c r="BE23" t="inlineStr"/>
-      <c r="BF23" t="inlineStr"/>
-      <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="inlineStr"/>
-      <c r="BI23" t="inlineStr"/>
-      <c r="BJ23" t="inlineStr"/>
-      <c r="BK23" t="inlineStr"/>
-      <c r="BL23" t="inlineStr"/>
-      <c r="BM23" t="inlineStr"/>
-      <c r="BN23" t="inlineStr"/>
-      <c r="BO23" t="inlineStr"/>
-      <c r="BP23" t="inlineStr"/>
-      <c r="BQ23" t="inlineStr"/>
-      <c r="BR23" t="inlineStr"/>
-      <c r="BS23" t="inlineStr"/>
-      <c r="BT23" t="inlineStr"/>
-      <c r="BU23" t="inlineStr"/>
-      <c r="BV23" t="inlineStr"/>
-      <c r="BW23" t="inlineStr"/>
-      <c r="BX23" t="inlineStr"/>
-      <c r="BY23" t="inlineStr"/>
-      <c r="BZ23" t="inlineStr"/>
-      <c r="CA23" t="inlineStr"/>
-      <c r="CB23" t="inlineStr"/>
-      <c r="CC23" t="inlineStr"/>
-      <c r="CD23" t="inlineStr"/>
-      <c r="CE23" t="inlineStr"/>
-      <c r="CF23" t="inlineStr"/>
-      <c r="CG23" t="inlineStr"/>
-      <c r="CH23" t="inlineStr"/>
-      <c r="CI23" t="inlineStr"/>
-      <c r="CJ23" t="inlineStr"/>
-      <c r="CK23" t="inlineStr"/>
-      <c r="CL23" t="inlineStr"/>
-      <c r="CM23" t="inlineStr"/>
-      <c r="CN23" t="inlineStr"/>
-      <c r="CO23" t="inlineStr"/>
-      <c r="CP23" t="inlineStr"/>
-      <c r="CQ23" t="inlineStr"/>
-      <c r="CR23" t="inlineStr"/>
-      <c r="CS23" t="inlineStr"/>
-      <c r="CT23" t="inlineStr"/>
-      <c r="CU23" t="inlineStr"/>
-      <c r="CV23" t="inlineStr"/>
-      <c r="CW23" t="inlineStr"/>
-      <c r="CX23" t="inlineStr"/>
-      <c r="CY23" t="inlineStr"/>
-      <c r="CZ23" t="inlineStr"/>
-      <c r="DA23" t="inlineStr"/>
-      <c r="DB23" t="inlineStr"/>
-      <c r="DC23" t="inlineStr"/>
-      <c r="DD23" t="inlineStr"/>
-      <c r="DE23" t="inlineStr"/>
-      <c r="DF23" t="inlineStr"/>
-      <c r="DG23" t="inlineStr"/>
-      <c r="DH23" t="inlineStr"/>
-      <c r="DI23" t="inlineStr"/>
-      <c r="DJ23" t="inlineStr"/>
-      <c r="DK23" t="inlineStr"/>
-      <c r="DL23" t="inlineStr"/>
-      <c r="DM23" t="inlineStr"/>
-      <c r="DN23" t="inlineStr"/>
-      <c r="DO23" t="inlineStr"/>
-      <c r="DP23" t="inlineStr"/>
-      <c r="DQ23" t="inlineStr"/>
-      <c r="DR23" t="inlineStr"/>
-      <c r="DS23" t="inlineStr"/>
-      <c r="DT23" t="inlineStr"/>
-      <c r="DU23" t="inlineStr"/>
-      <c r="DV23" t="inlineStr"/>
-      <c r="DW23" t="inlineStr"/>
-      <c r="DX23" t="inlineStr"/>
-      <c r="DY23" t="inlineStr"/>
-      <c r="DZ23" t="inlineStr"/>
-      <c r="EA23" t="inlineStr"/>
-      <c r="EB23" t="inlineStr"/>
-      <c r="EC23" t="inlineStr"/>
-      <c r="ED23" t="inlineStr"/>
-      <c r="EE23" t="inlineStr"/>
-      <c r="EF23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K23" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>27</v>
+      </c>
+      <c r="M23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="U23" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="V23" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="W23" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="X23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>26</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="CW23" t="n">
+        <v>26</v>
+      </c>
+      <c r="CX23" t="n">
+        <v>27</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="DB23" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="DC23" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="DD23" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="DE23" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="DF23" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="DG23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>28</v>
+      </c>
+      <c r="DJ23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="DK23" t="n">
+        <v>29</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="DM23" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="DN23" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="DO23" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="DP23" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="DQ23" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="DR23" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="DS23" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="DT23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="DU23" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="DV23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="DW23" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="DX23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="DZ23" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="EA23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="EB23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="EC23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="ED23" t="n">
+        <v>27</v>
+      </c>
+      <c r="EE23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="EF23" t="n">
+        <v>29.2</v>
+      </c>
       <c r="EG23" t="n">
         <v>30.7</v>
       </c>
-      <c r="EH23" t="inlineStr"/>
+      <c r="EH23" t="n">
+        <v>27.4</v>
+      </c>
       <c r="EI23" t="n">
         <v>29.9</v>
       </c>
-      <c r="EJ23" t="inlineStr"/>
-      <c r="EK23" t="inlineStr"/>
-      <c r="EL23" t="inlineStr"/>
-      <c r="EM23" t="inlineStr"/>
-      <c r="EN23" t="inlineStr"/>
-      <c r="EO23" t="inlineStr"/>
-      <c r="EP23" t="inlineStr"/>
-      <c r="EQ23" t="inlineStr"/>
+      <c r="EJ23" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="EK23" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="EL23" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="EM23" t="n">
+        <v>27</v>
+      </c>
+      <c r="EN23" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="EO23" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="EP23" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="EQ23" t="n">
+        <v>28.6</v>
+      </c>
       <c r="ER23" t="n">
         <v>28.8</v>
       </c>
-      <c r="ES23" t="inlineStr"/>
-      <c r="ET23" t="inlineStr"/>
+      <c r="ES23" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="ET23" t="n">
+        <v>27.3</v>
+      </c>
       <c r="EU23" t="n">
         <v>30.3</v>
       </c>
-      <c r="EV23" t="inlineStr"/>
-      <c r="EW23" t="inlineStr"/>
+      <c r="EV23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="EW23" t="n">
+        <v>28</v>
+      </c>
       <c r="EX23" t="n">
         <v>29.9</v>
       </c>
@@ -23760,165 +26152,457 @@
       <c r="EZ23" t="n">
         <v>30.6</v>
       </c>
-      <c r="FA23" t="inlineStr"/>
-      <c r="FB23" t="inlineStr"/>
+      <c r="FA23" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="FB23" t="n">
+        <v>28.4</v>
+      </c>
       <c r="FC23" t="n">
         <v>30.7</v>
       </c>
-      <c r="FD23" t="inlineStr"/>
-      <c r="FE23" t="inlineStr"/>
-      <c r="FF23" t="inlineStr"/>
-      <c r="FG23" t="inlineStr"/>
-      <c r="FH23" t="inlineStr"/>
-      <c r="FI23" t="inlineStr"/>
-      <c r="FJ23" t="inlineStr"/>
-      <c r="FK23" t="inlineStr"/>
+      <c r="FD23" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="FE23" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="FF23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="FG23" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="FH23" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="FI23" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="FJ23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="FK23" t="n">
+        <v>27.1</v>
+      </c>
       <c r="FL23" t="n">
         <v>29</v>
       </c>
-      <c r="FM23" t="inlineStr"/>
+      <c r="FM23" t="n">
+        <v>29.5</v>
+      </c>
       <c r="FN23" t="n">
         <v>27.6</v>
       </c>
       <c r="FO23" t="n">
         <v>26.9</v>
       </c>
-      <c r="FP23" t="inlineStr"/>
-      <c r="FQ23" t="inlineStr"/>
-      <c r="FR23" t="inlineStr"/>
-      <c r="FS23" t="inlineStr"/>
-      <c r="FT23" t="inlineStr"/>
-      <c r="FU23" t="inlineStr"/>
-      <c r="FV23" t="inlineStr"/>
-      <c r="FW23" t="inlineStr"/>
-      <c r="FX23" t="inlineStr"/>
-      <c r="FY23" t="inlineStr"/>
-      <c r="FZ23" t="inlineStr"/>
-      <c r="GA23" t="inlineStr"/>
-      <c r="GB23" t="inlineStr"/>
-      <c r="GC23" t="inlineStr"/>
-      <c r="GD23" t="inlineStr"/>
-      <c r="GE23" t="inlineStr"/>
-      <c r="GF23" t="inlineStr"/>
-      <c r="GG23" t="inlineStr"/>
-      <c r="GH23" t="inlineStr"/>
-      <c r="GI23" t="inlineStr"/>
-      <c r="GJ23" t="inlineStr"/>
-      <c r="GK23" t="inlineStr"/>
-      <c r="GL23" t="inlineStr"/>
-      <c r="GM23" t="inlineStr"/>
-      <c r="GN23" t="inlineStr"/>
-      <c r="GO23" t="inlineStr"/>
-      <c r="GP23" t="inlineStr"/>
-      <c r="GQ23" t="inlineStr"/>
-      <c r="GR23" t="inlineStr"/>
-      <c r="GS23" t="inlineStr"/>
-      <c r="GT23" t="inlineStr"/>
-      <c r="GU23" t="inlineStr"/>
-      <c r="GV23" t="inlineStr"/>
-      <c r="GW23" t="inlineStr"/>
-      <c r="GX23" t="inlineStr"/>
-      <c r="GY23" t="inlineStr"/>
-      <c r="GZ23" t="inlineStr"/>
-      <c r="HA23" t="inlineStr"/>
-      <c r="HB23" t="inlineStr"/>
-      <c r="HC23" t="inlineStr"/>
-      <c r="HD23" t="inlineStr"/>
-      <c r="HE23" t="inlineStr"/>
-      <c r="HF23" t="inlineStr"/>
-      <c r="HG23" t="inlineStr"/>
-      <c r="HH23" t="inlineStr"/>
-      <c r="HI23" t="inlineStr"/>
-      <c r="HJ23" t="inlineStr"/>
-      <c r="HK23" t="inlineStr"/>
-      <c r="HL23" t="inlineStr"/>
-      <c r="HM23" t="inlineStr"/>
-      <c r="HN23" t="inlineStr"/>
-      <c r="HO23" t="inlineStr"/>
-      <c r="HP23" t="inlineStr"/>
-      <c r="HQ23" t="inlineStr"/>
-      <c r="HR23" t="inlineStr"/>
-      <c r="HS23" t="inlineStr"/>
-      <c r="HT23" t="inlineStr"/>
-      <c r="HU23" t="inlineStr"/>
-      <c r="HV23" t="inlineStr"/>
-      <c r="HW23" t="inlineStr"/>
-      <c r="HX23" t="inlineStr"/>
-      <c r="HY23" t="inlineStr"/>
-      <c r="HZ23" t="inlineStr"/>
-      <c r="IA23" t="inlineStr"/>
-      <c r="IB23" t="inlineStr"/>
-      <c r="IC23" t="inlineStr"/>
-      <c r="ID23" t="inlineStr"/>
-      <c r="IE23" t="inlineStr"/>
-      <c r="IF23" t="inlineStr"/>
-      <c r="IG23" t="inlineStr"/>
-      <c r="IH23" t="inlineStr"/>
-      <c r="II23" t="inlineStr"/>
-      <c r="IJ23" t="inlineStr"/>
-      <c r="IK23" t="inlineStr"/>
-      <c r="IL23" t="inlineStr"/>
-      <c r="IM23" t="inlineStr"/>
-      <c r="IN23" t="inlineStr"/>
-      <c r="IO23" t="inlineStr"/>
-      <c r="IP23" t="inlineStr"/>
-      <c r="IQ23" t="inlineStr"/>
-      <c r="IR23" t="inlineStr"/>
-      <c r="IS23" t="inlineStr"/>
-      <c r="IT23" t="inlineStr"/>
-      <c r="IU23" t="inlineStr"/>
-      <c r="IV23" t="inlineStr"/>
-      <c r="IW23" t="inlineStr"/>
-      <c r="IX23" t="inlineStr"/>
-      <c r="IY23" t="inlineStr"/>
-      <c r="IZ23" t="inlineStr"/>
-      <c r="JA23" t="inlineStr"/>
-      <c r="JB23" t="inlineStr"/>
-      <c r="JC23" t="inlineStr"/>
-      <c r="JD23" t="inlineStr"/>
-      <c r="JE23" t="inlineStr"/>
-      <c r="JF23" t="inlineStr"/>
-      <c r="JG23" t="inlineStr"/>
-      <c r="JH23" t="inlineStr"/>
-      <c r="JI23" t="inlineStr"/>
-      <c r="JJ23" t="inlineStr"/>
-      <c r="JK23" t="inlineStr"/>
-      <c r="JL23" t="inlineStr"/>
-      <c r="JM23" t="inlineStr"/>
-      <c r="JN23" t="inlineStr"/>
-      <c r="JO23" t="inlineStr"/>
-      <c r="JP23" t="inlineStr"/>
-      <c r="JQ23" t="inlineStr"/>
-      <c r="JR23" t="inlineStr"/>
-      <c r="JS23" t="inlineStr"/>
-      <c r="JT23" t="inlineStr"/>
-      <c r="JU23" t="inlineStr"/>
-      <c r="JV23" t="inlineStr"/>
-      <c r="JW23" t="inlineStr"/>
-      <c r="JX23" t="inlineStr"/>
-      <c r="JY23" t="inlineStr"/>
-      <c r="JZ23" t="inlineStr"/>
-      <c r="KA23" t="inlineStr"/>
-      <c r="KB23" t="inlineStr"/>
-      <c r="KC23" t="inlineStr"/>
-      <c r="KD23" t="inlineStr"/>
-      <c r="KE23" t="inlineStr"/>
-      <c r="KF23" t="inlineStr"/>
-      <c r="KG23" t="inlineStr"/>
-      <c r="KH23" t="inlineStr"/>
-      <c r="KI23" t="inlineStr"/>
-      <c r="KJ23" t="inlineStr"/>
-      <c r="KK23" t="inlineStr"/>
-      <c r="KL23" t="inlineStr"/>
-      <c r="KM23" t="inlineStr"/>
-      <c r="KN23" t="inlineStr"/>
+      <c r="FP23" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="FQ23" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="FR23" t="n">
+        <v>28</v>
+      </c>
+      <c r="FS23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="FT23" t="n">
+        <v>25</v>
+      </c>
+      <c r="FU23" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="FV23" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="FW23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="FX23" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="FY23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="FZ23" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="GA23" t="n">
+        <v>28</v>
+      </c>
+      <c r="GB23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="GC23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="GD23" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="GE23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="GF23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="GG23" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="GH23" t="n">
+        <v>27</v>
+      </c>
+      <c r="GI23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="GJ23" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="GK23" t="n">
+        <v>27</v>
+      </c>
+      <c r="GL23" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="GM23" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="GN23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="GO23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="GP23" t="n">
+        <v>27</v>
+      </c>
+      <c r="GQ23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="GR23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="GS23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="GT23" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="GU23" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="GV23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="GW23" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="GX23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="GY23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="GZ23" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HA23" t="n">
+        <v>27</v>
+      </c>
+      <c r="HB23" t="n">
+        <v>27</v>
+      </c>
+      <c r="HC23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="HD23" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="HE23" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="HF23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HG23" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="HH23" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="HI23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="HJ23" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="HK23" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="HL23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="HM23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="HN23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="HO23" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="HP23" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HQ23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HR23" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="HS23" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="HT23" t="n">
+        <v>26</v>
+      </c>
+      <c r="HU23" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="HV23" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="HW23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="HX23" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="HY23" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="HZ23" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="IA23" t="n">
+        <v>27</v>
+      </c>
+      <c r="IB23" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="IC23" t="n">
+        <v>27</v>
+      </c>
+      <c r="ID23" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="IE23" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="IF23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="IG23" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="IH23" t="n">
+        <v>28</v>
+      </c>
+      <c r="II23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="IJ23" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="IK23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="IL23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="IM23" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="IN23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="IO23" t="n">
+        <v>27</v>
+      </c>
+      <c r="IP23" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="IQ23" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="IR23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="IS23" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="IU23" t="n">
+        <v>28</v>
+      </c>
+      <c r="IV23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="IW23" t="n">
+        <v>30</v>
+      </c>
+      <c r="IX23" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="IY23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="IZ23" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="JA23" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JB23" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="JC23" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="JD23" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="JE23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="JF23" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="JG23" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="JH23" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="JI23" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="JJ23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JK23" t="n">
+        <v>27</v>
+      </c>
+      <c r="JL23" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="JM23" t="n">
+        <v>28</v>
+      </c>
+      <c r="JN23" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JO23" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="JP23" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="JQ23" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="JR23" t="n">
+        <v>28</v>
+      </c>
+      <c r="JS23" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="JT23" t="n">
+        <v>28</v>
+      </c>
+      <c r="JU23" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="JV23" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="JW23" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="JX23" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="JY23" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="JZ23" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="KA23" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="KB23" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="KC23" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="KD23" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="KE23" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="KF23" t="n">
+        <v>29</v>
+      </c>
+      <c r="KG23" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="KH23" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="KI23" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="KJ23" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="KK23" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="KL23" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="KM23" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="KN23" t="n">
+        <v>27.8</v>
+      </c>
       <c r="KO23" t="inlineStr"/>
-      <c r="KP23" t="inlineStr"/>
-      <c r="KQ23" t="inlineStr"/>
-      <c r="KR23" t="inlineStr"/>
-      <c r="KS23" t="inlineStr"/>
-      <c r="KT23" t="inlineStr"/>
-      <c r="KU23" t="inlineStr"/>
+      <c r="KP23" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="KQ23" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="KR23" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="KS23" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="KT23" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="KU23" t="n">
+        <v>28.6</v>
+      </c>
       <c r="KV23" t="n">
         <v>33.2</v>
       </c>
@@ -24144,14 +26828,30 @@
       <c r="J24" t="n">
         <v>26.3</v>
       </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>27</v>
+      </c>
+      <c r="M24" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="N24" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>27.2</v>
+      </c>
       <c r="S24" t="n">
         <v>26.2</v>
       </c>
@@ -24176,7 +26876,9 @@
       <c r="Z24" t="n">
         <v>26.4</v>
       </c>
-      <c r="AA24" t="inlineStr"/>
+      <c r="AA24" t="n">
+        <v>25.9</v>
+      </c>
       <c r="AB24" t="n">
         <v>26.5</v>
       </c>
@@ -24288,7 +26990,9 @@
       <c r="BL24" t="n">
         <v>24.8</v>
       </c>
-      <c r="BM24" t="inlineStr"/>
+      <c r="BM24" t="n">
+        <v>26.3</v>
+      </c>
       <c r="BN24" t="n">
         <v>26.3</v>
       </c>
@@ -24304,7 +27008,9 @@
       <c r="BR24" t="n">
         <v>24.8</v>
       </c>
-      <c r="BS24" t="inlineStr"/>
+      <c r="BS24" t="n">
+        <v>25.9</v>
+      </c>
       <c r="BT24" t="n">
         <v>26.5</v>
       </c>
@@ -24335,7 +27041,9 @@
       <c r="CC24" t="n">
         <v>26.5</v>
       </c>
-      <c r="CD24" t="inlineStr"/>
+      <c r="CD24" t="n">
+        <v>26.8</v>
+      </c>
       <c r="CE24" t="n">
         <v>26.4</v>
       </c>
@@ -24387,7 +27095,9 @@
       <c r="CU24" t="n">
         <v>27.7</v>
       </c>
-      <c r="CV24" t="inlineStr"/>
+      <c r="CV24" t="n">
+        <v>27.5</v>
+      </c>
       <c r="CW24" t="n">
         <v>25.7</v>
       </c>
@@ -24439,7 +27149,9 @@
       <c r="DM24" t="n">
         <v>28</v>
       </c>
-      <c r="DN24" t="inlineStr"/>
+      <c r="DN24" t="n">
+        <v>26.7</v>
+      </c>
       <c r="DO24" t="n">
         <v>27.2</v>
       </c>
@@ -24473,7 +27185,9 @@
       <c r="DY24" t="n">
         <v>28.9</v>
       </c>
-      <c r="DZ24" t="inlineStr"/>
+      <c r="DZ24" t="n">
+        <v>28.2</v>
+      </c>
       <c r="EA24" t="n">
         <v>28.6</v>
       </c>
@@ -24717,7 +27431,9 @@
       <c r="HC24" t="n">
         <v>29</v>
       </c>
-      <c r="HD24" t="inlineStr"/>
+      <c r="HD24" t="n">
+        <v>26.2</v>
+      </c>
       <c r="HE24" t="n">
         <v>28.7</v>
       </c>
@@ -24736,7 +27452,9 @@
       <c r="HJ24" t="n">
         <v>28.4</v>
       </c>
-      <c r="HK24" t="inlineStr"/>
+      <c r="HK24" t="n">
+        <v>28.4</v>
+      </c>
       <c r="HL24" t="n">
         <v>27.2</v>
       </c>
@@ -24987,7 +27705,9 @@
       <c r="KQ24" t="n">
         <v>27.3</v>
       </c>
-      <c r="KR24" t="inlineStr"/>
+      <c r="KR24" t="n">
+        <v>28.1</v>
+      </c>
       <c r="KS24" t="n">
         <v>28.1</v>
       </c>
@@ -25222,7 +27942,9 @@
       <c r="J25" t="n">
         <v>26.4</v>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>27.6</v>
+      </c>
       <c r="L25" t="n">
         <v>26.3</v>
       </c>
